--- a/Datos/Anuario2024/100501_ReferendumConstitucionEuropa.xlsx
+++ b/Datos/Anuario2024/100501_ReferendumConstitucionEuropa.xlsx
@@ -1,163 +1,528 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4245" windowWidth="15330" windowHeight="4290" tabRatio="695" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4245" windowWidth="15330" windowHeight="4290" tabRatio="695"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="75" r:id="rId1"/>
+    <sheet name="1" sheetId="76" r:id="rId2"/>
+    <sheet name="2" sheetId="124" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_R1_1">#REF!</definedName>
+    <definedName name="_R1_10" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_10">#REF!</definedName>
     <definedName name="_R1_11">#REF!</definedName>
     <definedName name="_R1_12">#REF!</definedName>
     <definedName name="_R1_13">#REF!</definedName>
     <definedName name="_R1_2">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_5">#REF!</definedName>
+    <definedName name="_R1_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_6">#REF!</definedName>
+    <definedName name="_R1_7" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_7">#REF!</definedName>
+    <definedName name="_R1_8" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_8">#REF!</definedName>
+    <definedName name="_R1_9" localSheetId="2">#REF!</definedName>
     <definedName name="_R1_9">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
     <definedName name="_R2_10">#REF!</definedName>
     <definedName name="_R2_11">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_3">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_4">#REF!</definedName>
+    <definedName name="_R2_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_5">#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_6">#REF!</definedName>
+    <definedName name="_R2_7" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_7">#REF!</definedName>
+    <definedName name="_R2_8" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_8">#REF!</definedName>
+    <definedName name="_R2_9" localSheetId="2">#REF!</definedName>
     <definedName name="_R2_9">#REF!</definedName>
     <definedName name="_R3_1">#REF!</definedName>
+    <definedName name="_R3_10" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_10">#REF!</definedName>
+    <definedName name="_R3_11" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_11">#REF!</definedName>
+    <definedName name="_R3_12" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_12">#REF!</definedName>
+    <definedName name="_R3_13" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_13">#REF!</definedName>
+    <definedName name="_R3_14" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_14">#REF!</definedName>
+    <definedName name="_R3_15" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_15">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
+    <definedName name="_R3_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_4">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_5">#REF!</definedName>
+    <definedName name="_R3_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_6">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
+    <definedName name="_R3_8" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_8">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="2">#REF!</definedName>
     <definedName name="_R3_9">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_5" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R4_8" localSheetId="1">'1'!$A$1:$I$14</definedName>
+    <definedName name="_R4_8" localSheetId="2">'2'!$A$1:$I$24</definedName>
     <definedName name="_R4_8">#REF!</definedName>
     <definedName name="_R4_9">#REF!</definedName>
+    <definedName name="_R5_1" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
+    <definedName name="_R5_2" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_2">#REF!</definedName>
+    <definedName name="_R5_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R5_3">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="1">'1'!$A$1:$I$14</definedName>
-    <definedName name="_R1_10" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R1_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R2_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_10" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_11" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_12" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_13" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_14" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_15" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_7" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_8" localSheetId="2">#REF!</definedName>
-    <definedName name="_R3_9" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_5" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="2">#REF!</definedName>
-    <definedName name="_R4_8" localSheetId="2">'2'!$A$1:$I$24</definedName>
-    <definedName name="_R5_1" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_2" localSheetId="2">#REF!</definedName>
-    <definedName name="_R5_3" localSheetId="2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="118">
+  <si>
+    <t xml:space="preserve"> 1. Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8. Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9. Jesús</t>
+  </si>
+  <si>
+    <t>10. Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11. Poblats Marítims</t>
+  </si>
+  <si>
+    <t>12. Camins al Grau</t>
+  </si>
+  <si>
+    <t>13. Algirós</t>
+  </si>
+  <si>
+    <t>14. Benimaclet</t>
+  </si>
+  <si>
+    <t>15. Rascanya</t>
+  </si>
+  <si>
+    <t>16. Benicalap</t>
+  </si>
+  <si>
+    <t>17. Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18. Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19. Pobles del Sud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6. Sant Francesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Russafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. Sant Pau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Marxalenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. Trinitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. Tormos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. Sant Antoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Exposició</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Mestalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. Jaume Roig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. C. Universitària</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Nou Moles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Soternes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Sant Isidre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. Vara de Quart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. Favara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. Camí Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. Beteró</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Aiora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Albors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. Camí Fondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. Penya-roja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Ciutat Jardí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Benimaclet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Camí de Vera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. Carpesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6. Massarrojos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7. Borbotó</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Benimàmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Beniferri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. Pinedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. Malilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. Natzaret </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Orriols </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Torrefiel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Benicalap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Ciutat Fallera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Benifaraig </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Poble Nou </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. Tres Forques </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7. Ciutat de les Arts i de les Ciències</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. Sant Llorenç</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. Sant Marcel·lí</t>
+  </si>
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. l'Olivereta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. el Forn d'Alcedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. el Saler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. el Palmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6. el Perellonet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7 i 8. la Torre - Faitanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. la Seu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. la Xerea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. la Roqueta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. la Petxina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. la Fontsanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. la Llum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. la Raiosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. la Creu Coberta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6. la Punta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. la Malva-rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. la Bega Baixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. la Carrasca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. el Carme </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. el Pilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. el Mercat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. el Pla del Remei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. el Botànic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. el Calvari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. el Grau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. el Cabanyal-el Canyamelar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. les Tendetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. l'Hort de Senabre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. l'Illa Perduda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. l'Amistat</t>
+  </si>
+  <si>
+    <t>SÍ</t>
+  </si>
+  <si>
+    <t>Votos Leídos</t>
+  </si>
+  <si>
+    <t>Votos Nulos</t>
+  </si>
+  <si>
+    <t>Abstención</t>
+  </si>
+  <si>
+    <t>Votos Válidos</t>
+  </si>
+  <si>
+    <t>Fuente: Delegación de Gobierno en la Comunidad Valenciana. Resultados provisionales.</t>
+  </si>
+  <si>
+    <t>Votos en Blanco</t>
+  </si>
+  <si>
+    <t>Electorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. Arrancapins </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Morvedre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Patraix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. la Creu del Grau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. la Gran Via</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. el Safranar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Montolivet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. la Fonteta de Sant Lluís</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4 i 5. les Cases de Bàrcena-Mauella </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Castellar-l’Oliveral</t>
+  </si>
+  <si>
+    <t>REFERÉNDUM CONSTITUCIÓN EUROPEA</t>
+  </si>
+  <si>
+    <t>Fuente: Delegación de Gobierno en la Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t>1. Resultados del Referéndum Constitución Europea 2005 por distrito</t>
+  </si>
+  <si>
+    <t>2. Resultados del Referéndum Constitución Europea 2005 por barrio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. na Rovella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. en Corts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. el Pla del Real</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -186,67 +551,89 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FFFF6600"/>
+      <color rgb="FF00B050"/>
+      <color rgb="FF3366FF"/>
+      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFF3E7FF"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFCCCCFF"/>
+      <color rgb="FFDF73FF"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -536,3828 +923,3514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja34">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="11.42578125" customWidth="1" style="3" min="1" max="16384"/>
+    <col min="1" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>REFERÉNDUM CONSTITUCIÓN EUROPEA</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja35">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="21" customWidth="1" style="1" min="1" max="1"/>
-    <col width="10.140625" customWidth="1" style="2" min="2" max="9"/>
-    <col width="11.42578125" customWidth="1" style="1" min="10" max="16384"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="inlineStr">
-        <is>
-          <t>1. Resultados del Referéndum Constitución Europea 2005 por distrito</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="n"/>
-      <c r="C1" s="13" t="n"/>
-      <c r="D1" s="13" t="n"/>
-      <c r="E1" s="13" t="n"/>
-      <c r="F1" s="13" t="n"/>
-      <c r="G1" s="13" t="n"/>
-      <c r="H1" s="13" t="n"/>
-      <c r="I1" s="13" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="13" t="n"/>
-      <c r="C2" s="13" t="n"/>
-      <c r="D2" s="13" t="n"/>
-      <c r="E2" s="13" t="n"/>
-      <c r="F2" s="13" t="n"/>
-      <c r="G2" s="13" t="n"/>
-      <c r="H2" s="13" t="n"/>
-      <c r="I2" s="13" t="n"/>
-    </row>
-    <row r="3" ht="35.85" customHeight="1">
-      <c r="A3" s="15" t="n"/>
-      <c r="B3" s="14" t="inlineStr">
-        <is>
-          <t>Electorado</t>
-        </is>
-      </c>
-      <c r="C3" s="17" t="inlineStr">
-        <is>
-          <t>Votos Leídos</t>
-        </is>
-      </c>
-      <c r="D3" s="17" t="inlineStr">
-        <is>
-          <t>Abstención</t>
-        </is>
-      </c>
-      <c r="E3" s="17" t="inlineStr">
-        <is>
-          <t>Votos Nulos</t>
-        </is>
-      </c>
-      <c r="F3" s="17" t="inlineStr">
-        <is>
-          <t>Votos Válidos</t>
-        </is>
-      </c>
-      <c r="G3" s="14" t="inlineStr">
-        <is>
-          <t>Votos en Blanco</t>
-        </is>
-      </c>
-      <c r="H3" s="17" t="inlineStr">
-        <is>
-          <t>SÍ</t>
-        </is>
-      </c>
-      <c r="I3" s="17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="23" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="B4" s="22" t="n">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="22">
         <v>606179</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="22">
         <v>267751</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="22">
         <v>338428</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="22">
         <v>2450</v>
       </c>
-      <c r="F4" s="22" t="n">
+      <c r="F4" s="22">
         <v>265301</v>
       </c>
-      <c r="G4" s="22" t="n">
+      <c r="G4" s="22">
         <v>17668</v>
       </c>
-      <c r="H4" s="22" t="n">
+      <c r="H4" s="22">
         <v>192102</v>
       </c>
-      <c r="I4" s="22" t="n">
+      <c r="I4" s="22">
         <v>55531</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="19" t="n">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="19">
         <v>19905</v>
       </c>
-      <c r="C5" s="19" t="n">
+      <c r="C5" s="19">
         <v>9235</v>
       </c>
-      <c r="D5" s="19" t="n">
+      <c r="D5" s="19">
         <v>10670</v>
       </c>
-      <c r="E5" s="19" t="n">
+      <c r="E5" s="19">
         <v>58</v>
       </c>
-      <c r="F5" s="19" t="n">
+      <c r="F5" s="19">
         <v>9177</v>
       </c>
-      <c r="G5" s="19" t="n">
+      <c r="G5" s="19">
         <v>676</v>
       </c>
-      <c r="H5" s="19" t="n">
+      <c r="H5" s="19">
         <v>5472</v>
       </c>
-      <c r="I5" s="19" t="n">
+      <c r="I5" s="19">
         <v>3029</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="9">
         <v>34304</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="9">
         <v>16245</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="9">
         <v>18059</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="9">
         <v>108</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="9">
         <v>16137</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="9">
         <v>1344</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="9">
         <v>9936</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="9">
         <v>4857</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="19" t="n">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19">
         <v>39289</v>
       </c>
-      <c r="C7" s="19" t="n">
+      <c r="C7" s="19">
         <v>18416</v>
       </c>
-      <c r="D7" s="21" t="n">
+      <c r="D7" s="20">
         <v>20873</v>
       </c>
-      <c r="E7" s="19" t="n">
+      <c r="E7" s="19">
         <v>148</v>
       </c>
-      <c r="F7" s="19" t="n">
+      <c r="F7" s="19">
         <v>18268</v>
       </c>
-      <c r="G7" s="19" t="n">
+      <c r="G7" s="19">
         <v>1481</v>
       </c>
-      <c r="H7" s="19" t="n">
+      <c r="H7" s="19">
         <v>11950</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="19">
         <v>4837</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="9" t="n">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9">
         <v>25911</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="9">
         <v>11833</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="13">
         <v>14078</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="9">
         <v>86</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="9">
         <v>11747</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="9">
         <v>808</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="9">
         <v>8582</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="9">
         <v>2357</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="19" t="n">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="19">
         <v>37523</v>
       </c>
-      <c r="C9" s="19" t="n">
+      <c r="C9" s="19">
         <v>17304</v>
       </c>
-      <c r="D9" s="21" t="n">
+      <c r="D9" s="20">
         <v>20219</v>
       </c>
-      <c r="E9" s="19" t="n">
+      <c r="E9" s="19">
         <v>375</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="F9" s="19">
         <v>16929</v>
       </c>
-      <c r="G9" s="19" t="n">
+      <c r="G9" s="19">
         <v>1032</v>
       </c>
-      <c r="H9" s="19" t="n">
+      <c r="H9" s="19">
         <v>12356</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I9" s="19">
         <v>3541</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="9">
         <v>24028</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="9">
         <v>11350</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D10" s="9">
         <v>12678</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="9">
         <v>92</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="9">
         <v>11258</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="9">
         <v>992</v>
       </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="9">
         <v>7020</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="9">
         <v>3246</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="19" t="n">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="19">
         <v>38242</v>
       </c>
-      <c r="C11" s="19" t="n">
+      <c r="C11" s="19">
         <v>16882</v>
       </c>
-      <c r="D11" s="21" t="n">
+      <c r="D11" s="20">
         <v>21360</v>
       </c>
-      <c r="E11" s="19" t="n">
+      <c r="E11" s="19">
         <v>158</v>
       </c>
-      <c r="F11" s="19" t="n">
+      <c r="F11" s="19">
         <v>16724</v>
       </c>
-      <c r="G11" s="19" t="n">
+      <c r="G11" s="19">
         <v>899</v>
       </c>
-      <c r="H11" s="19" t="n">
+      <c r="H11" s="19">
         <v>12829</v>
       </c>
-      <c r="I11" s="19" t="n">
+      <c r="I11" s="19">
         <v>2996</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="9" t="n">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9">
         <v>45613</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="9">
         <v>20609</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="13">
         <v>25004</v>
       </c>
-      <c r="E12" s="9" t="n">
+      <c r="E12" s="9">
         <v>139</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="9">
         <v>20470</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="9">
         <v>1687</v>
       </c>
-      <c r="H12" s="9" t="n">
+      <c r="H12" s="9">
         <v>14880</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="I12" s="9">
         <v>3903</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="19" t="n">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="19">
         <v>40633</v>
       </c>
-      <c r="C13" s="19" t="n">
+      <c r="C13" s="19">
         <v>17741</v>
       </c>
-      <c r="D13" s="21" t="n">
+      <c r="D13" s="20">
         <v>22892</v>
       </c>
-      <c r="E13" s="19" t="n">
+      <c r="E13" s="19">
         <v>128</v>
       </c>
-      <c r="F13" s="19" t="n">
+      <c r="F13" s="19">
         <v>17613</v>
       </c>
-      <c r="G13" s="19" t="n">
+      <c r="G13" s="19">
         <v>1108</v>
       </c>
-      <c r="H13" s="19" t="n">
+      <c r="H13" s="19">
         <v>13385</v>
       </c>
-      <c r="I13" s="19" t="n">
+      <c r="I13" s="19">
         <v>3120</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="12" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="9" t="n">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9">
         <v>56305</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="9">
         <v>23205</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="13">
         <v>33100</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="9">
         <v>201</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="9">
         <v>23004</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="9">
         <v>1408</v>
       </c>
-      <c r="H14" s="9" t="n">
+      <c r="H14" s="9">
         <v>16924</v>
       </c>
-      <c r="I14" s="9" t="n">
+      <c r="I14" s="9">
         <v>4672</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="21" t="n">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="21">
         <v>45671</v>
       </c>
-      <c r="C15" s="21" t="n">
+      <c r="C15" s="21">
         <v>17987</v>
       </c>
-      <c r="D15" s="21" t="n">
+      <c r="D15" s="21">
         <v>27684</v>
       </c>
-      <c r="E15" s="21" t="n">
+      <c r="E15" s="21">
         <v>156</v>
       </c>
-      <c r="F15" s="21" t="n">
+      <c r="F15" s="21">
         <v>17831</v>
       </c>
-      <c r="G15" s="21" t="n">
+      <c r="G15" s="21">
         <v>962</v>
       </c>
-      <c r="H15" s="21" t="n">
+      <c r="H15" s="21">
         <v>13762</v>
       </c>
-      <c r="I15" s="21" t="n">
+      <c r="I15" s="21">
         <v>3107</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="12" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="13" t="n">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7">
         <v>45015</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="7">
         <v>19762</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="13">
         <v>25253</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="7">
         <v>174</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="7">
         <v>19588</v>
       </c>
-      <c r="G16" s="13" t="n">
+      <c r="G16" s="7">
         <v>1176</v>
       </c>
-      <c r="H16" s="13" t="n">
+      <c r="H16" s="7">
         <v>14697</v>
       </c>
-      <c r="I16" s="13" t="n">
+      <c r="I16" s="7">
         <v>3715</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="18" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="21" t="n">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="21">
         <v>32262</v>
       </c>
-      <c r="C17" s="21" t="n">
+      <c r="C17" s="21">
         <v>15187</v>
       </c>
-      <c r="D17" s="21" t="n">
+      <c r="D17" s="21">
         <v>17075</v>
       </c>
-      <c r="E17" s="21" t="n">
+      <c r="E17" s="21">
         <v>106</v>
       </c>
-      <c r="F17" s="21" t="n">
+      <c r="F17" s="21">
         <v>15081</v>
       </c>
-      <c r="G17" s="21" t="n">
+      <c r="G17" s="21">
         <v>1064</v>
       </c>
-      <c r="H17" s="21" t="n">
+      <c r="H17" s="21">
         <v>10997</v>
       </c>
-      <c r="I17" s="21" t="n">
+      <c r="I17" s="21">
         <v>3020</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="12" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="13" t="n">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="7">
         <v>23238</v>
       </c>
-      <c r="C18" s="13" t="n">
+      <c r="C18" s="7">
         <v>10665</v>
       </c>
-      <c r="D18" s="13" t="n">
+      <c r="D18" s="13">
         <v>12573</v>
       </c>
-      <c r="E18" s="13" t="n">
+      <c r="E18" s="7">
         <v>89</v>
       </c>
-      <c r="F18" s="13" t="n">
+      <c r="F18" s="7">
         <v>10576</v>
       </c>
-      <c r="G18" s="13" t="n">
+      <c r="G18" s="7">
         <v>647</v>
       </c>
-      <c r="H18" s="13" t="n">
+      <c r="H18" s="7">
         <v>7605</v>
       </c>
-      <c r="I18" s="13" t="n">
+      <c r="I18" s="7">
         <v>2324</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="18" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="21" t="n">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="21">
         <v>36087</v>
       </c>
-      <c r="C19" s="21" t="n">
+      <c r="C19" s="21">
         <v>15407</v>
       </c>
-      <c r="D19" s="21" t="n">
+      <c r="D19" s="20">
         <v>20680</v>
       </c>
-      <c r="E19" s="21" t="n">
+      <c r="E19" s="21">
         <v>157</v>
       </c>
-      <c r="F19" s="21" t="n">
+      <c r="F19" s="21">
         <v>15250</v>
       </c>
-      <c r="G19" s="21" t="n">
+      <c r="G19" s="21">
         <v>897</v>
       </c>
-      <c r="H19" s="21" t="n">
+      <c r="H19" s="21">
         <v>11731</v>
       </c>
-      <c r="I19" s="21" t="n">
+      <c r="I19" s="21">
         <v>2622</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="12" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="13" t="n">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="7">
         <v>31170</v>
       </c>
-      <c r="C20" s="13" t="n">
+      <c r="C20" s="7">
         <v>12714</v>
       </c>
-      <c r="D20" s="13" t="n">
+      <c r="D20" s="7">
         <v>18456</v>
       </c>
-      <c r="E20" s="13" t="n">
+      <c r="E20" s="7">
         <v>106</v>
       </c>
-      <c r="F20" s="13" t="n">
+      <c r="F20" s="7">
         <v>12608</v>
       </c>
-      <c r="G20" s="13" t="n">
+      <c r="G20" s="7">
         <v>760</v>
       </c>
-      <c r="H20" s="13" t="n">
+      <c r="H20" s="7">
         <v>9845</v>
       </c>
-      <c r="I20" s="13" t="n">
+      <c r="I20" s="7">
         <v>2003</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="18" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="21" t="n">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="21">
         <v>4735</v>
       </c>
-      <c r="C21" s="21" t="n">
+      <c r="C21" s="21">
         <v>2240</v>
       </c>
-      <c r="D21" s="21" t="n">
+      <c r="D21" s="21">
         <v>2495</v>
       </c>
-      <c r="E21" s="21" t="n">
+      <c r="E21" s="21">
         <v>22</v>
       </c>
-      <c r="F21" s="21" t="n">
+      <c r="F21" s="21">
         <v>2218</v>
       </c>
-      <c r="G21" s="21" t="n">
+      <c r="G21" s="21">
         <v>170</v>
       </c>
-      <c r="H21" s="21" t="n">
+      <c r="H21" s="21">
         <v>1613</v>
       </c>
-      <c r="I21" s="21" t="n">
+      <c r="I21" s="21">
         <v>435</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="12" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="13" t="n">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="7">
         <v>10302</v>
       </c>
-      <c r="C22" s="13" t="n">
+      <c r="C22" s="7">
         <v>4255</v>
       </c>
-      <c r="D22" s="13" t="n">
+      <c r="D22" s="7">
         <v>6047</v>
       </c>
-      <c r="E22" s="13" t="n">
+      <c r="E22" s="7">
         <v>54</v>
       </c>
-      <c r="F22" s="13" t="n">
+      <c r="F22" s="7">
         <v>4201</v>
       </c>
-      <c r="G22" s="13" t="n">
+      <c r="G22" s="7">
         <v>205</v>
       </c>
-      <c r="H22" s="13" t="n">
+      <c r="H22" s="7">
         <v>3307</v>
       </c>
-      <c r="I22" s="13" t="n">
+      <c r="I22" s="7">
         <v>689</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="18" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="21" t="n">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="21">
         <v>15946</v>
       </c>
-      <c r="C23" s="21" t="n">
+      <c r="C23" s="21">
         <v>6714</v>
       </c>
-      <c r="D23" s="21" t="n">
+      <c r="D23" s="21">
         <v>9232</v>
       </c>
-      <c r="E23" s="21" t="n">
+      <c r="E23" s="21">
         <v>93</v>
       </c>
-      <c r="F23" s="21" t="n">
+      <c r="F23" s="21">
         <v>6621</v>
       </c>
-      <c r="G23" s="21" t="n">
+      <c r="G23" s="21">
         <v>352</v>
       </c>
-      <c r="H23" s="21" t="n">
+      <c r="H23" s="21">
         <v>5211</v>
       </c>
-      <c r="I23" s="21" t="n">
+      <c r="I23" s="21">
         <v>1058</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Delegación de Gobierno en la Comunidad Valenciana</t>
-        </is>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="95" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="33.7109375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="10.140625" customWidth="1" style="2" min="2" max="9"/>
-    <col width="11.42578125" customWidth="1" style="1" min="10" max="16384"/>
+    <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
+    <col min="2" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="inlineStr">
-        <is>
-          <t>2. Resultados del Referéndum Constitución Europea 2005 por barrio</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="n"/>
-      <c r="C1" s="13" t="n"/>
-      <c r="D1" s="13" t="n"/>
-      <c r="E1" s="13" t="n"/>
-      <c r="F1" s="13" t="n"/>
-      <c r="G1" s="13" t="n"/>
-      <c r="H1" s="13" t="n"/>
-      <c r="I1" s="13" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="13" t="n"/>
-      <c r="C2" s="13" t="n"/>
-      <c r="D2" s="13" t="n"/>
-      <c r="E2" s="13" t="n"/>
-      <c r="F2" s="13" t="n"/>
-      <c r="G2" s="13" t="n"/>
-      <c r="H2" s="13" t="n"/>
-      <c r="I2" s="13" t="n"/>
-    </row>
-    <row r="3" ht="35.85" customHeight="1">
-      <c r="A3" s="15" t="n"/>
-      <c r="B3" s="14" t="inlineStr">
-        <is>
-          <t>Electorado</t>
-        </is>
-      </c>
-      <c r="C3" s="17" t="inlineStr">
-        <is>
-          <t>Votos Leídos</t>
-        </is>
-      </c>
-      <c r="D3" s="17" t="inlineStr">
-        <is>
-          <t>Abstención</t>
-        </is>
-      </c>
-      <c r="E3" s="17" t="inlineStr">
-        <is>
-          <t>Votos Nulos</t>
-        </is>
-      </c>
-      <c r="F3" s="17" t="inlineStr">
-        <is>
-          <t>Votos Válidos</t>
-        </is>
-      </c>
-      <c r="G3" s="14" t="inlineStr">
-        <is>
-          <t>Votos en Blanco</t>
-        </is>
-      </c>
-      <c r="H3" s="17" t="inlineStr">
-        <is>
-          <t>SÍ</t>
-        </is>
-      </c>
-      <c r="I3" s="17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="23" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="B4" s="22" t="n">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="22">
         <v>606179</v>
       </c>
-      <c r="C4" s="22" t="n">
+      <c r="C4" s="22">
         <v>267751</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="22">
         <v>338428</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="22">
         <v>2450</v>
       </c>
-      <c r="F4" s="22" t="n">
+      <c r="F4" s="22">
         <v>265301</v>
       </c>
-      <c r="G4" s="22" t="n">
+      <c r="G4" s="22">
         <v>17668</v>
       </c>
-      <c r="H4" s="22" t="n">
+      <c r="H4" s="22">
         <v>192102</v>
       </c>
-      <c r="I4" s="22" t="n">
+      <c r="I4" s="22">
         <v>55531</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="19" t="n"/>
-      <c r="C5" s="19" t="n"/>
-      <c r="D5" s="19" t="n"/>
-      <c r="E5" s="19" t="n"/>
-      <c r="F5" s="19" t="n"/>
-      <c r="G5" s="19" t="n"/>
-      <c r="H5" s="19" t="n"/>
-      <c r="I5" s="19" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. la Seu </t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="9">
         <v>2099</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="9">
         <v>1043</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="13">
         <v>1056</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="9">
         <v>8</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="9">
         <v>1035</v>
       </c>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="9">
         <v>78</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="9">
         <v>614</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="9">
         <v>343</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. la Xerea </t>
-        </is>
-      </c>
-      <c r="B7" s="19" t="n">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="19">
         <v>3062</v>
       </c>
-      <c r="C7" s="19" t="n">
+      <c r="C7" s="19">
         <v>1484</v>
       </c>
-      <c r="D7" s="21" t="n">
+      <c r="D7" s="20">
         <v>1578</v>
       </c>
-      <c r="E7" s="19" t="n">
+      <c r="E7" s="19">
         <v>7</v>
       </c>
-      <c r="F7" s="19" t="n">
+      <c r="F7" s="19">
         <v>1477</v>
       </c>
-      <c r="G7" s="19" t="n">
+      <c r="G7" s="19">
         <v>102</v>
       </c>
-      <c r="H7" s="19" t="n">
+      <c r="H7" s="19">
         <v>843</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="19">
         <v>532</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. el Carme </t>
-        </is>
-      </c>
-      <c r="B8" s="9" t="n">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="9">
         <v>4722</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="9">
         <v>2161</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="13">
         <v>2561</v>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="9">
         <v>7</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="9">
         <v>2154</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="9">
         <v>169</v>
       </c>
-      <c r="H8" s="9" t="n">
+      <c r="H8" s="9">
         <v>1371</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="9">
         <v>614</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. el Pilar</t>
-        </is>
-      </c>
-      <c r="B9" s="19" t="n">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="19">
         <v>2968</v>
       </c>
-      <c r="C9" s="19" t="n">
+      <c r="C9" s="19">
         <v>1263</v>
       </c>
-      <c r="D9" s="21" t="n">
+      <c r="D9" s="20">
         <v>1705</v>
       </c>
-      <c r="E9" s="19" t="n">
+      <c r="E9" s="19">
         <v>5</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="F9" s="19">
         <v>1258</v>
       </c>
-      <c r="G9" s="19" t="n">
+      <c r="G9" s="19">
         <v>92</v>
       </c>
-      <c r="H9" s="19" t="n">
+      <c r="H9" s="19">
         <v>787</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I9" s="19">
         <v>379</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. el Mercat</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="9">
         <v>2517</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="9">
         <v>1159</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="13">
         <v>1358</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="9">
         <v>11</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="9">
         <v>1148</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="9">
         <v>79</v>
       </c>
-      <c r="H10" s="9" t="n">
+      <c r="H10" s="9">
         <v>720</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="9">
         <v>349</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    6. Sant Francesc</t>
-        </is>
-      </c>
-      <c r="B11" s="19" t="n">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="19">
         <v>4537</v>
       </c>
-      <c r="C11" s="19" t="n">
+      <c r="C11" s="19">
         <v>2125</v>
       </c>
-      <c r="D11" s="21" t="n">
+      <c r="D11" s="20">
         <v>2412</v>
       </c>
-      <c r="E11" s="19" t="n">
+      <c r="E11" s="19">
         <v>20</v>
       </c>
-      <c r="F11" s="19" t="n">
+      <c r="F11" s="19">
         <v>2105</v>
       </c>
-      <c r="G11" s="19" t="n">
+      <c r="G11" s="19">
         <v>156</v>
       </c>
-      <c r="H11" s="19" t="n">
+      <c r="H11" s="19">
         <v>1137</v>
       </c>
-      <c r="I11" s="19" t="n">
+      <c r="I11" s="19">
         <v>812</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B12" s="9" t="n"/>
-      <c r="C12" s="9" t="n"/>
-      <c r="D12" s="9" t="n"/>
-      <c r="E12" s="9" t="n"/>
-      <c r="F12" s="9" t="n"/>
-      <c r="G12" s="9" t="n"/>
-      <c r="H12" s="9" t="n"/>
-      <c r="I12" s="9" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Russafa</t>
-        </is>
-      </c>
-      <c r="B13" s="19" t="n">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="19">
         <v>18602</v>
       </c>
-      <c r="C13" s="19" t="n">
+      <c r="C13" s="19">
         <v>8659</v>
       </c>
-      <c r="D13" s="21" t="n">
+      <c r="D13" s="20">
         <v>9943</v>
       </c>
-      <c r="E13" s="19" t="n">
+      <c r="E13" s="19">
         <v>60</v>
       </c>
-      <c r="F13" s="19" t="n">
+      <c r="F13" s="19">
         <v>8599</v>
       </c>
-      <c r="G13" s="19" t="n">
+      <c r="G13" s="19">
         <v>615</v>
       </c>
-      <c r="H13" s="19" t="n">
+      <c r="H13" s="19">
         <v>5624</v>
       </c>
-      <c r="I13" s="19" t="n">
+      <c r="I13" s="19">
         <v>2360</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. el Pla del Remei</t>
-        </is>
-      </c>
-      <c r="B14" s="9" t="n">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="9">
         <v>5928</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="9">
         <v>2901</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="13">
         <v>3027</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="9">
         <v>13</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="9">
         <v>2888</v>
       </c>
-      <c r="G14" s="9" t="n">
+      <c r="G14" s="9">
         <v>298</v>
       </c>
-      <c r="H14" s="9" t="n">
+      <c r="H14" s="9">
         <v>1548</v>
       </c>
-      <c r="I14" s="9" t="n">
+      <c r="I14" s="9">
         <v>1042</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. la Gran Via</t>
-        </is>
-      </c>
-      <c r="B15" s="19" t="n">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="19">
         <v>9774</v>
       </c>
-      <c r="C15" s="19" t="n">
+      <c r="C15" s="19">
         <v>4685</v>
       </c>
-      <c r="D15" s="21" t="n">
+      <c r="D15" s="20">
         <v>5089</v>
       </c>
-      <c r="E15" s="19" t="n">
+      <c r="E15" s="19">
         <v>35</v>
       </c>
-      <c r="F15" s="19" t="n">
+      <c r="F15" s="19">
         <v>4650</v>
       </c>
-      <c r="G15" s="19" t="n">
+      <c r="G15" s="19">
         <v>431</v>
       </c>
-      <c r="H15" s="19" t="n">
+      <c r="H15" s="19">
         <v>2764</v>
       </c>
-      <c r="I15" s="19" t="n">
+      <c r="I15" s="19">
         <v>1455</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B16" s="9" t="n"/>
-      <c r="C16" s="9" t="n"/>
-      <c r="D16" s="9" t="n"/>
-      <c r="E16" s="9" t="n"/>
-      <c r="F16" s="9" t="n"/>
-      <c r="G16" s="9" t="n"/>
-      <c r="H16" s="9" t="n"/>
-      <c r="I16" s="9" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. el Botànic</t>
-        </is>
-      </c>
-      <c r="B17" s="19" t="n">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="19">
         <v>4989</v>
       </c>
-      <c r="C17" s="19" t="n">
+      <c r="C17" s="19">
         <v>2350</v>
       </c>
-      <c r="D17" s="21" t="n">
+      <c r="D17" s="20">
         <v>2639</v>
       </c>
-      <c r="E17" s="19" t="n">
+      <c r="E17" s="19">
         <v>32</v>
       </c>
-      <c r="F17" s="19" t="n">
+      <c r="F17" s="19">
         <v>2318</v>
       </c>
-      <c r="G17" s="19" t="n">
+      <c r="G17" s="19">
         <v>184</v>
       </c>
-      <c r="H17" s="19" t="n">
+      <c r="H17" s="19">
         <v>1532</v>
       </c>
-      <c r="I17" s="19" t="n">
+      <c r="I17" s="19">
         <v>602</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. la Roqueta</t>
-        </is>
-      </c>
-      <c r="B18" s="9" t="n">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="9">
         <v>3391</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="9">
         <v>1510</v>
       </c>
-      <c r="D18" s="13" t="n">
+      <c r="D18" s="13">
         <v>1881</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="9">
         <v>5</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="9">
         <v>1505</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="9">
         <v>116</v>
       </c>
-      <c r="H18" s="9" t="n">
+      <c r="H18" s="9">
         <v>966</v>
       </c>
-      <c r="I18" s="9" t="n">
+      <c r="I18" s="9">
         <v>423</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. la Petxina</t>
-        </is>
-      </c>
-      <c r="B19" s="19" t="n">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="19">
         <v>12065</v>
       </c>
-      <c r="C19" s="19" t="n">
+      <c r="C19" s="19">
         <v>5809</v>
       </c>
-      <c r="D19" s="21" t="n">
+      <c r="D19" s="20">
         <v>6256</v>
       </c>
-      <c r="E19" s="19" t="n">
+      <c r="E19" s="19">
         <v>33</v>
       </c>
-      <c r="F19" s="19" t="n">
+      <c r="F19" s="19">
         <v>5776</v>
       </c>
-      <c r="G19" s="19" t="n">
+      <c r="G19" s="19">
         <v>482</v>
       </c>
-      <c r="H19" s="19" t="n">
+      <c r="H19" s="19">
         <v>3758</v>
       </c>
-      <c r="I19" s="19" t="n">
+      <c r="I19" s="19">
         <v>1536</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. Arrancapins </t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="n">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="9">
         <v>18844</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="9">
         <v>8747</v>
       </c>
-      <c r="D20" s="13" t="n">
+      <c r="D20" s="13">
         <v>10097</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="9">
         <v>78</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="9">
         <v>8669</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="9">
         <v>699</v>
       </c>
-      <c r="H20" s="9" t="n">
+      <c r="H20" s="9">
         <v>5694</v>
       </c>
-      <c r="I20" s="9" t="n">
+      <c r="I20" s="9">
         <v>2276</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B21" s="19" t="n"/>
-      <c r="C21" s="19" t="n"/>
-      <c r="D21" s="19" t="n"/>
-      <c r="E21" s="19" t="n"/>
-      <c r="F21" s="19" t="n"/>
-      <c r="G21" s="19" t="n"/>
-      <c r="H21" s="19" t="n"/>
-      <c r="I21" s="19" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Campanar</t>
-        </is>
-      </c>
-      <c r="B22" s="9" t="n">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9">
         <v>9858</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="9">
         <v>4635</v>
       </c>
-      <c r="D22" s="13" t="n">
+      <c r="D22" s="13">
         <v>5223</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="9">
         <v>34</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="9">
         <v>4601</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="9">
         <v>335</v>
       </c>
-      <c r="H22" s="9" t="n">
+      <c r="H22" s="9">
         <v>3240</v>
       </c>
-      <c r="I22" s="9" t="n">
+      <c r="I22" s="9">
         <v>1026</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. les Tendetes</t>
-        </is>
-      </c>
-      <c r="B23" s="19" t="n">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="19">
         <v>4292</v>
       </c>
-      <c r="C23" s="19" t="n">
+      <c r="C23" s="19">
         <v>2040</v>
       </c>
-      <c r="D23" s="21" t="n">
+      <c r="D23" s="20">
         <v>2252</v>
       </c>
-      <c r="E23" s="19" t="n">
+      <c r="E23" s="19">
         <v>15</v>
       </c>
-      <c r="F23" s="19" t="n">
+      <c r="F23" s="19">
         <v>2025</v>
       </c>
-      <c r="G23" s="19" t="n">
+      <c r="G23" s="19">
         <v>133</v>
       </c>
-      <c r="H23" s="19" t="n">
+      <c r="H23" s="19">
         <v>1454</v>
       </c>
-      <c r="I23" s="19" t="n">
+      <c r="I23" s="19">
         <v>438</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. el Calvari</t>
-        </is>
-      </c>
-      <c r="B24" s="13" t="n">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="7">
         <v>3977</v>
       </c>
-      <c r="C24" s="13" t="n">
+      <c r="C24" s="7">
         <v>1672</v>
       </c>
-      <c r="D24" s="13" t="n">
+      <c r="D24" s="13">
         <v>2305</v>
       </c>
-      <c r="E24" s="13" t="n">
+      <c r="E24" s="7">
         <v>21</v>
       </c>
-      <c r="F24" s="13" t="n">
+      <c r="F24" s="7">
         <v>1651</v>
       </c>
-      <c r="G24" s="13" t="n">
+      <c r="G24" s="7">
         <v>76</v>
       </c>
-      <c r="H24" s="13" t="n">
+      <c r="H24" s="7">
         <v>1369</v>
       </c>
-      <c r="I24" s="13" t="n">
+      <c r="I24" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. Sant Pau</t>
-        </is>
-      </c>
-      <c r="B25" s="21" t="n">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="21">
         <v>7784</v>
       </c>
-      <c r="C25" s="21" t="n">
+      <c r="C25" s="21">
         <v>3486</v>
       </c>
-      <c r="D25" s="21" t="n">
+      <c r="D25" s="20">
         <v>4298</v>
       </c>
-      <c r="E25" s="21" t="n">
+      <c r="E25" s="21">
         <v>16</v>
       </c>
-      <c r="F25" s="21" t="n">
+      <c r="F25" s="21">
         <v>3470</v>
       </c>
-      <c r="G25" s="21" t="n">
+      <c r="G25" s="21">
         <v>264</v>
       </c>
-      <c r="H25" s="21" t="n">
+      <c r="H25" s="21">
         <v>2519</v>
       </c>
-      <c r="I25" s="21" t="n">
+      <c r="I25" s="21">
         <v>687</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="13" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="13" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="13" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="13" t="n"/>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Marxalenes</t>
-        </is>
-      </c>
-      <c r="B27" s="21" t="n">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21">
         <v>8762</v>
       </c>
-      <c r="C27" s="21" t="n">
+      <c r="C27" s="21">
         <v>3965</v>
       </c>
-      <c r="D27" s="21" t="n">
+      <c r="D27" s="20">
         <v>4797</v>
       </c>
-      <c r="E27" s="21" t="n">
+      <c r="E27" s="21">
         <v>40</v>
       </c>
-      <c r="F27" s="21" t="n">
+      <c r="F27" s="21">
         <v>3925</v>
       </c>
-      <c r="G27" s="21" t="n">
+      <c r="G27" s="21">
         <v>227</v>
       </c>
-      <c r="H27" s="21" t="n">
+      <c r="H27" s="21">
         <v>3013</v>
       </c>
-      <c r="I27" s="21" t="n">
+      <c r="I27" s="21">
         <v>685</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Morvedre </t>
-        </is>
-      </c>
-      <c r="B28" s="13" t="n">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="7">
         <v>7911</v>
       </c>
-      <c r="C28" s="13" t="n">
+      <c r="C28" s="7">
         <v>3699</v>
       </c>
-      <c r="D28" s="13" t="n">
+      <c r="D28" s="13">
         <v>4212</v>
       </c>
-      <c r="E28" s="13" t="n">
+      <c r="E28" s="7">
         <v>37</v>
       </c>
-      <c r="F28" s="13" t="n">
+      <c r="F28" s="7">
         <v>3662</v>
       </c>
-      <c r="G28" s="13" t="n">
+      <c r="G28" s="7">
         <v>225</v>
       </c>
-      <c r="H28" s="13" t="n">
+      <c r="H28" s="7">
         <v>2525</v>
       </c>
-      <c r="I28" s="13" t="n">
+      <c r="I28" s="7">
         <v>912</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. Trinitat</t>
-        </is>
-      </c>
-      <c r="B29" s="21" t="n">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="21">
         <v>6445</v>
       </c>
-      <c r="C29" s="21" t="n">
+      <c r="C29" s="21">
         <v>3099</v>
       </c>
-      <c r="D29" s="21" t="n">
+      <c r="D29" s="20">
         <v>3346</v>
       </c>
-      <c r="E29" s="21" t="n">
+      <c r="E29" s="21">
         <v>266</v>
       </c>
-      <c r="F29" s="21" t="n">
+      <c r="F29" s="21">
         <v>2833</v>
       </c>
-      <c r="G29" s="21" t="n">
+      <c r="G29" s="21">
         <v>193</v>
       </c>
-      <c r="H29" s="21" t="n">
+      <c r="H29" s="21">
         <v>2023</v>
       </c>
-      <c r="I29" s="21" t="n">
+      <c r="I29" s="21">
         <v>617</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. Tormos</t>
-        </is>
-      </c>
-      <c r="B30" s="13" t="n">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="7">
         <v>6534</v>
       </c>
-      <c r="C30" s="13" t="n">
+      <c r="C30" s="7">
         <v>2889</v>
       </c>
-      <c r="D30" s="13" t="n">
+      <c r="D30" s="13">
         <v>3645</v>
       </c>
-      <c r="E30" s="13" t="n">
+      <c r="E30" s="7">
         <v>14</v>
       </c>
-      <c r="F30" s="13" t="n">
+      <c r="F30" s="7">
         <v>2875</v>
       </c>
-      <c r="G30" s="13" t="n">
+      <c r="G30" s="7">
         <v>171</v>
       </c>
-      <c r="H30" s="13" t="n">
+      <c r="H30" s="7">
         <v>2199</v>
       </c>
-      <c r="I30" s="13" t="n">
+      <c r="I30" s="7">
         <v>505</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. Sant Antoni</t>
-        </is>
-      </c>
-      <c r="B31" s="21" t="n">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="21">
         <v>7871</v>
       </c>
-      <c r="C31" s="21" t="n">
+      <c r="C31" s="21">
         <v>3652</v>
       </c>
-      <c r="D31" s="21" t="n">
+      <c r="D31" s="20">
         <v>4219</v>
       </c>
-      <c r="E31" s="21" t="n">
+      <c r="E31" s="21">
         <v>18</v>
       </c>
-      <c r="F31" s="21" t="n">
+      <c r="F31" s="21">
         <v>3634</v>
       </c>
-      <c r="G31" s="21" t="n">
+      <c r="G31" s="21">
         <v>216</v>
       </c>
-      <c r="H31" s="21" t="n">
+      <c r="H31" s="21">
         <v>2596</v>
       </c>
-      <c r="I31" s="21" t="n">
+      <c r="I31" s="21">
         <v>822</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B32" s="13" t="n"/>
-      <c r="C32" s="13" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="13" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="13" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="13" t="n"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Exposició</t>
-        </is>
-      </c>
-      <c r="B33" s="21" t="n">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="21">
         <v>5515</v>
       </c>
-      <c r="C33" s="21" t="n">
+      <c r="C33" s="21">
         <v>2588</v>
       </c>
-      <c r="D33" s="21" t="n">
+      <c r="D33" s="20">
         <v>2927</v>
       </c>
-      <c r="E33" s="21" t="n">
+      <c r="E33" s="21">
         <v>15</v>
       </c>
-      <c r="F33" s="21" t="n">
+      <c r="F33" s="21">
         <v>2573</v>
       </c>
-      <c r="G33" s="21" t="n">
+      <c r="G33" s="21">
         <v>252</v>
       </c>
-      <c r="H33" s="21" t="n">
+      <c r="H33" s="21">
         <v>1457</v>
       </c>
-      <c r="I33" s="21" t="n">
+      <c r="I33" s="21">
         <v>864</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Mestalla</t>
-        </is>
-      </c>
-      <c r="B34" s="13" t="n">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="7">
         <v>10897</v>
       </c>
-      <c r="C34" s="13" t="n">
+      <c r="C34" s="7">
         <v>5090</v>
       </c>
-      <c r="D34" s="13" t="n">
+      <c r="D34" s="13">
         <v>5807</v>
       </c>
-      <c r="E34" s="13" t="n">
+      <c r="E34" s="7">
         <v>54</v>
       </c>
-      <c r="F34" s="13" t="n">
+      <c r="F34" s="7">
         <v>5036</v>
       </c>
-      <c r="G34" s="13" t="n">
+      <c r="G34" s="7">
         <v>430</v>
       </c>
-      <c r="H34" s="13" t="n">
+      <c r="H34" s="7">
         <v>3389</v>
       </c>
-      <c r="I34" s="13" t="n">
+      <c r="I34" s="7">
         <v>1217</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. Jaume Roig</t>
-        </is>
-      </c>
-      <c r="B35" s="21" t="n">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="21">
         <v>5538</v>
       </c>
-      <c r="C35" s="21" t="n">
+      <c r="C35" s="21">
         <v>2660</v>
       </c>
-      <c r="D35" s="21" t="n">
+      <c r="D35" s="20">
         <v>2878</v>
       </c>
-      <c r="E35" s="21" t="n">
+      <c r="E35" s="21">
         <v>18</v>
       </c>
-      <c r="F35" s="21" t="n">
+      <c r="F35" s="21">
         <v>2642</v>
       </c>
-      <c r="G35" s="21" t="n">
+      <c r="G35" s="21">
         <v>238</v>
       </c>
-      <c r="H35" s="21" t="n">
+      <c r="H35" s="21">
         <v>1554</v>
       </c>
-      <c r="I35" s="21" t="n">
+      <c r="I35" s="21">
         <v>850</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. C. Universitària</t>
-        </is>
-      </c>
-      <c r="B36" s="13" t="n">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="7">
         <v>2078</v>
       </c>
-      <c r="C36" s="13" t="n">
+      <c r="C36" s="7">
         <v>1012</v>
       </c>
-      <c r="D36" s="13" t="n">
+      <c r="D36" s="13">
         <v>1066</v>
       </c>
-      <c r="E36" s="13" t="n">
+      <c r="E36" s="7">
         <v>5</v>
       </c>
-      <c r="F36" s="13" t="n">
+      <c r="F36" s="7">
         <v>1007</v>
       </c>
-      <c r="G36" s="13" t="n">
+      <c r="G36" s="7">
         <v>72</v>
       </c>
-      <c r="H36" s="13" t="n">
+      <c r="H36" s="7">
         <v>620</v>
       </c>
-      <c r="I36" s="13" t="n">
+      <c r="I36" s="7">
         <v>315</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B37" s="21" t="n"/>
-      <c r="C37" s="21" t="n"/>
-      <c r="D37" s="21" t="n"/>
-      <c r="E37" s="21" t="n"/>
-      <c r="F37" s="21" t="n"/>
-      <c r="G37" s="21" t="n"/>
-      <c r="H37" s="21" t="n"/>
-      <c r="I37" s="21" t="n"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Nou Moles</t>
-        </is>
-      </c>
-      <c r="B38" s="13" t="n">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="7">
         <v>20519</v>
       </c>
-      <c r="C38" s="13" t="n">
+      <c r="C38" s="7">
         <v>9082</v>
       </c>
-      <c r="D38" s="13" t="n">
+      <c r="D38" s="13">
         <v>11437</v>
       </c>
-      <c r="E38" s="13" t="n">
+      <c r="E38" s="7">
         <v>81</v>
       </c>
-      <c r="F38" s="13" t="n">
+      <c r="F38" s="7">
         <v>9001</v>
       </c>
-      <c r="G38" s="13" t="n">
+      <c r="G38" s="7">
         <v>479</v>
       </c>
-      <c r="H38" s="13" t="n">
+      <c r="H38" s="7">
         <v>6815</v>
       </c>
-      <c r="I38" s="13" t="n">
+      <c r="I38" s="7">
         <v>1707</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Soternes</t>
-        </is>
-      </c>
-      <c r="B39" s="21" t="n">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="21">
         <v>3977</v>
       </c>
-      <c r="C39" s="21" t="n">
+      <c r="C39" s="21">
         <v>1807</v>
       </c>
-      <c r="D39" s="21" t="n">
+      <c r="D39" s="20">
         <v>2170</v>
       </c>
-      <c r="E39" s="21" t="n">
+      <c r="E39" s="21">
         <v>9</v>
       </c>
-      <c r="F39" s="21" t="n">
+      <c r="F39" s="21">
         <v>1798</v>
       </c>
-      <c r="G39" s="21" t="n">
+      <c r="G39" s="21">
         <v>102</v>
       </c>
-      <c r="H39" s="21" t="n">
+      <c r="H39" s="21">
         <v>1373</v>
       </c>
-      <c r="I39" s="21" t="n">
+      <c r="I39" s="21">
         <v>323</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. Tres Forques </t>
-        </is>
-      </c>
-      <c r="B40" s="13" t="n">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="7">
         <v>7270</v>
       </c>
-      <c r="C40" s="13" t="n">
+      <c r="C40" s="7">
         <v>3198</v>
       </c>
-      <c r="D40" s="13" t="n">
+      <c r="D40" s="13">
         <v>4072</v>
       </c>
-      <c r="E40" s="13" t="n">
+      <c r="E40" s="7">
         <v>44</v>
       </c>
-      <c r="F40" s="13" t="n">
+      <c r="F40" s="7">
         <v>3154</v>
       </c>
-      <c r="G40" s="13" t="n">
+      <c r="G40" s="7">
         <v>179</v>
       </c>
-      <c r="H40" s="13" t="n">
+      <c r="H40" s="7">
         <v>2451</v>
       </c>
-      <c r="I40" s="13" t="n">
+      <c r="I40" s="7">
         <v>524</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. la Fontsanta</t>
-        </is>
-      </c>
-      <c r="B41" s="21" t="n">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="21">
         <v>2661</v>
       </c>
-      <c r="C41" s="21" t="n">
+      <c r="C41" s="21">
         <v>1045</v>
       </c>
-      <c r="D41" s="21" t="n">
+      <c r="D41" s="20">
         <v>1616</v>
       </c>
-      <c r="E41" s="21" t="n">
+      <c r="E41" s="21">
         <v>15</v>
       </c>
-      <c r="F41" s="21" t="n">
+      <c r="F41" s="21">
         <v>1030</v>
       </c>
-      <c r="G41" s="21" t="n">
+      <c r="G41" s="21">
         <v>49</v>
       </c>
-      <c r="H41" s="21" t="n">
+      <c r="H41" s="21">
         <v>843</v>
       </c>
-      <c r="I41" s="21" t="n">
+      <c r="I41" s="21">
         <v>138</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. la Llum</t>
-        </is>
-      </c>
-      <c r="B42" s="13" t="n">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="7">
         <v>3815</v>
       </c>
-      <c r="C42" s="13" t="n">
+      <c r="C42" s="7">
         <v>1750</v>
       </c>
-      <c r="D42" s="13" t="n">
+      <c r="D42" s="13">
         <v>2065</v>
       </c>
-      <c r="E42" s="13" t="n">
+      <c r="E42" s="7">
         <v>9</v>
       </c>
-      <c r="F42" s="13" t="n">
+      <c r="F42" s="7">
         <v>1741</v>
       </c>
-      <c r="G42" s="13" t="n">
+      <c r="G42" s="7">
         <v>90</v>
       </c>
-      <c r="H42" s="13" t="n">
+      <c r="H42" s="7">
         <v>1347</v>
       </c>
-      <c r="I42" s="13" t="n">
+      <c r="I42" s="7">
         <v>304</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B43" s="21" t="n"/>
-      <c r="C43" s="21" t="n"/>
-      <c r="D43" s="21" t="n"/>
-      <c r="E43" s="21" t="n"/>
-      <c r="F43" s="21" t="n"/>
-      <c r="G43" s="21" t="n"/>
-      <c r="H43" s="21" t="n"/>
-      <c r="I43" s="21" t="n"/>
-    </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Patraix </t>
-        </is>
-      </c>
-      <c r="B44" s="13" t="n">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="7">
         <v>19639</v>
       </c>
-      <c r="C44" s="13" t="n">
+      <c r="C44" s="7">
         <v>9145</v>
       </c>
-      <c r="D44" s="13" t="n">
+      <c r="D44" s="13">
         <v>10494</v>
       </c>
-      <c r="E44" s="13" t="n">
+      <c r="E44" s="7">
         <v>64</v>
       </c>
-      <c r="F44" s="13" t="n">
+      <c r="F44" s="7">
         <v>9081</v>
       </c>
-      <c r="G44" s="13" t="n">
+      <c r="G44" s="7">
         <v>658</v>
       </c>
-      <c r="H44" s="13" t="n">
+      <c r="H44" s="7">
         <v>6606</v>
       </c>
-      <c r="I44" s="13" t="n">
+      <c r="I44" s="7">
         <v>1817</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Sant Isidre</t>
-        </is>
-      </c>
-      <c r="B45" s="21" t="n">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="21">
         <v>7598</v>
       </c>
-      <c r="C45" s="21" t="n">
+      <c r="C45" s="21">
         <v>3201</v>
       </c>
-      <c r="D45" s="21" t="n">
+      <c r="D45" s="20">
         <v>4397</v>
       </c>
-      <c r="E45" s="21" t="n">
+      <c r="E45" s="21">
         <v>13</v>
       </c>
-      <c r="F45" s="21" t="n">
+      <c r="F45" s="21">
         <v>3188</v>
       </c>
-      <c r="G45" s="21" t="n">
+      <c r="G45" s="21">
         <v>199</v>
       </c>
-      <c r="H45" s="21" t="n">
+      <c r="H45" s="21">
         <v>2388</v>
       </c>
-      <c r="I45" s="21" t="n">
+      <c r="I45" s="21">
         <v>601</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. Vara de Quart</t>
-        </is>
-      </c>
-      <c r="B46" s="13" t="n">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="7">
         <v>9105</v>
       </c>
-      <c r="C46" s="13" t="n">
+      <c r="C46" s="7">
         <v>4138</v>
       </c>
-      <c r="D46" s="13" t="n">
+      <c r="D46" s="13">
         <v>4967</v>
       </c>
-      <c r="E46" s="13" t="n">
+      <c r="E46" s="7">
         <v>33</v>
       </c>
-      <c r="F46" s="13" t="n">
+      <c r="F46" s="7">
         <v>4105</v>
       </c>
-      <c r="G46" s="13" t="n">
+      <c r="G46" s="7">
         <v>513</v>
       </c>
-      <c r="H46" s="13" t="n">
+      <c r="H46" s="7">
         <v>2831</v>
       </c>
-      <c r="I46" s="13" t="n">
+      <c r="I46" s="7">
         <v>761</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. el Safranar</t>
-        </is>
-      </c>
-      <c r="B47" s="21" t="n">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="21">
         <v>6794</v>
       </c>
-      <c r="C47" s="21" t="n">
+      <c r="C47" s="21">
         <v>3047</v>
       </c>
-      <c r="D47" s="21" t="n">
+      <c r="D47" s="20">
         <v>3747</v>
       </c>
-      <c r="E47" s="21" t="n">
+      <c r="E47" s="21">
         <v>22</v>
       </c>
-      <c r="F47" s="21" t="n">
+      <c r="F47" s="21">
         <v>3025</v>
       </c>
-      <c r="G47" s="21" t="n">
+      <c r="G47" s="21">
         <v>245</v>
       </c>
-      <c r="H47" s="21" t="n">
+      <c r="H47" s="21">
         <v>2241</v>
       </c>
-      <c r="I47" s="21" t="n">
+      <c r="I47" s="21">
         <v>539</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. Favara</t>
-        </is>
-      </c>
-      <c r="B48" s="13" t="n">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="7">
         <v>2477</v>
       </c>
-      <c r="C48" s="13" t="n">
+      <c r="C48" s="7">
         <v>1078</v>
       </c>
-      <c r="D48" s="13" t="n">
+      <c r="D48" s="13">
         <v>1399</v>
       </c>
-      <c r="E48" s="13" t="n">
+      <c r="E48" s="7">
         <v>7</v>
       </c>
-      <c r="F48" s="13" t="n">
+      <c r="F48" s="7">
         <v>1071</v>
       </c>
-      <c r="G48" s="13" t="n">
+      <c r="G48" s="7">
         <v>72</v>
       </c>
-      <c r="H48" s="13" t="n">
+      <c r="H48" s="7">
         <v>814</v>
       </c>
-      <c r="I48" s="13" t="n">
+      <c r="I48" s="7">
         <v>185</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="n"/>
-      <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
-      <c r="F49" s="21" t="n"/>
-      <c r="G49" s="21" t="n"/>
-      <c r="H49" s="21" t="n"/>
-      <c r="I49" s="21" t="n"/>
-    </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. la Raiosa</t>
-        </is>
-      </c>
-      <c r="B50" s="13" t="n">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="7">
         <v>11462</v>
       </c>
-      <c r="C50" s="13" t="n">
+      <c r="C50" s="7">
         <v>5066</v>
       </c>
-      <c r="D50" s="13" t="n">
+      <c r="D50" s="13">
         <v>6396</v>
       </c>
-      <c r="E50" s="13" t="n">
+      <c r="E50" s="7">
         <v>26</v>
       </c>
-      <c r="F50" s="13" t="n">
+      <c r="F50" s="7">
         <v>5040</v>
       </c>
-      <c r="G50" s="13" t="n">
+      <c r="G50" s="7">
         <v>353</v>
       </c>
-      <c r="H50" s="13" t="n">
+      <c r="H50" s="7">
         <v>3605</v>
       </c>
-      <c r="I50" s="13" t="n">
+      <c r="I50" s="7">
         <v>1082</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. l'Hort de Senabre</t>
-        </is>
-      </c>
-      <c r="B51" s="21" t="n">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="21">
         <v>13606</v>
       </c>
-      <c r="C51" s="21" t="n">
+      <c r="C51" s="21">
         <v>5996</v>
       </c>
-      <c r="D51" s="21" t="n">
+      <c r="D51" s="20">
         <v>7610</v>
       </c>
-      <c r="E51" s="21" t="n">
+      <c r="E51" s="21">
         <v>48</v>
       </c>
-      <c r="F51" s="21" t="n">
+      <c r="F51" s="21">
         <v>5948</v>
       </c>
-      <c r="G51" s="21" t="n">
+      <c r="G51" s="21">
         <v>371</v>
       </c>
-      <c r="H51" s="21" t="n">
+      <c r="H51" s="21">
         <v>4596</v>
       </c>
-      <c r="I51" s="21" t="n">
+      <c r="I51" s="21">
         <v>981</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. la Creu Coberta</t>
-        </is>
-      </c>
-      <c r="B52" s="13" t="n">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="7">
         <v>4918</v>
       </c>
-      <c r="C52" s="13" t="n">
+      <c r="C52" s="7">
         <v>2207</v>
       </c>
-      <c r="D52" s="13" t="n">
+      <c r="D52" s="13">
         <v>2711</v>
       </c>
-      <c r="E52" s="13" t="n">
+      <c r="E52" s="7">
         <v>16</v>
       </c>
-      <c r="F52" s="13" t="n">
+      <c r="F52" s="7">
         <v>2191</v>
       </c>
-      <c r="G52" s="13" t="n">
+      <c r="G52" s="7">
         <v>151</v>
       </c>
-      <c r="H52" s="13" t="n">
+      <c r="H52" s="7">
         <v>1672</v>
       </c>
-      <c r="I52" s="13" t="n">
+      <c r="I52" s="7">
         <v>368</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. Sant Marcel·lí</t>
-        </is>
-      </c>
-      <c r="B53" s="21" t="n">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="21">
         <v>8109</v>
       </c>
-      <c r="C53" s="21" t="n">
+      <c r="C53" s="21">
         <v>3635</v>
       </c>
-      <c r="D53" s="21" t="n">
+      <c r="D53" s="20">
         <v>4474</v>
       </c>
-      <c r="E53" s="21" t="n">
+      <c r="E53" s="21">
         <v>28</v>
       </c>
-      <c r="F53" s="21" t="n">
+      <c r="F53" s="21">
         <v>3607</v>
       </c>
-      <c r="G53" s="21" t="n">
+      <c r="G53" s="21">
         <v>184</v>
       </c>
-      <c r="H53" s="21" t="n">
+      <c r="H53" s="21">
         <v>2877</v>
       </c>
-      <c r="I53" s="21" t="n">
+      <c r="I53" s="21">
         <v>546</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. Camí Real</t>
-        </is>
-      </c>
-      <c r="B54" s="13" t="n">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="7">
         <v>2538</v>
       </c>
-      <c r="C54" s="13" t="n">
+      <c r="C54" s="7">
         <v>837</v>
       </c>
-      <c r="D54" s="13" t="n">
+      <c r="D54" s="13">
         <v>1701</v>
       </c>
-      <c r="E54" s="13" t="n">
+      <c r="E54" s="7">
         <v>10</v>
       </c>
-      <c r="F54" s="13" t="n">
+      <c r="F54" s="7">
         <v>827</v>
       </c>
-      <c r="G54" s="13" t="n">
+      <c r="G54" s="7">
         <v>49</v>
       </c>
-      <c r="H54" s="13" t="n">
+      <c r="H54" s="7">
         <v>635</v>
       </c>
-      <c r="I54" s="13" t="n">
+      <c r="I54" s="7">
         <v>143</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" s="18" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B55" s="21" t="n"/>
-      <c r="C55" s="21" t="n"/>
-      <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
-      <c r="F55" s="21" t="n"/>
-      <c r="G55" s="21" t="n"/>
-      <c r="H55" s="21" t="n"/>
-      <c r="I55" s="21" t="n"/>
-    </row>
-    <row r="56" ht="15" customHeight="1">
-      <c r="A56" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Montolivet</t>
-        </is>
-      </c>
-      <c r="B56" s="13" t="n">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="7">
         <v>15050</v>
       </c>
-      <c r="C56" s="13" t="n">
+      <c r="C56" s="7">
         <v>6360</v>
       </c>
-      <c r="D56" s="13" t="n">
+      <c r="D56" s="13">
         <v>8690</v>
       </c>
-      <c r="E56" s="13" t="n">
+      <c r="E56" s="7">
         <v>47</v>
       </c>
-      <c r="F56" s="13" t="n">
+      <c r="F56" s="7">
         <v>6313</v>
       </c>
-      <c r="G56" s="13" t="n">
+      <c r="G56" s="7">
         <v>408</v>
       </c>
-      <c r="H56" s="13" t="n">
+      <c r="H56" s="7">
         <v>4503</v>
       </c>
-      <c r="I56" s="13" t="n">
+      <c r="I56" s="7">
         <v>1402</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1">
-      <c r="A57" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. en Corts</t>
-        </is>
-      </c>
-      <c r="B57" s="21" t="n">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="21">
         <v>8749</v>
       </c>
-      <c r="C57" s="21" t="n">
+      <c r="C57" s="21">
         <v>3713</v>
       </c>
-      <c r="D57" s="21" t="n">
+      <c r="D57" s="20">
         <v>5036</v>
       </c>
-      <c r="E57" s="21" t="n">
+      <c r="E57" s="21">
         <v>32</v>
       </c>
-      <c r="F57" s="21" t="n">
+      <c r="F57" s="21">
         <v>3681</v>
       </c>
-      <c r="G57" s="21" t="n">
+      <c r="G57" s="21">
         <v>222</v>
       </c>
-      <c r="H57" s="21" t="n">
+      <c r="H57" s="21">
         <v>2706</v>
       </c>
-      <c r="I57" s="21" t="n">
+      <c r="I57" s="21">
         <v>753</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1">
-      <c r="A58" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. Malilla </t>
-        </is>
-      </c>
-      <c r="B58" s="13" t="n">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="7">
         <v>17604</v>
       </c>
-      <c r="C58" s="13" t="n">
+      <c r="C58" s="7">
         <v>7506</v>
       </c>
-      <c r="D58" s="13" t="n">
+      <c r="D58" s="13">
         <v>10098</v>
       </c>
-      <c r="E58" s="13" t="n">
+      <c r="E58" s="7">
         <v>79</v>
       </c>
-      <c r="F58" s="13" t="n">
+      <c r="F58" s="7">
         <v>7427</v>
       </c>
-      <c r="G58" s="13" t="n">
+      <c r="G58" s="7">
         <v>490</v>
       </c>
-      <c r="H58" s="13" t="n">
+      <c r="H58" s="7">
         <v>5434</v>
       </c>
-      <c r="I58" s="13" t="n">
+      <c r="I58" s="7">
         <v>1503</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="A59" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. la Fonteta de Sant Lluís</t>
-        </is>
-      </c>
-      <c r="B59" s="21" t="n">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="21">
         <v>2329</v>
       </c>
-      <c r="C59" s="21" t="n">
+      <c r="C59" s="21">
         <v>890</v>
       </c>
-      <c r="D59" s="21" t="n">
+      <c r="D59" s="20">
         <v>1439</v>
       </c>
-      <c r="E59" s="21" t="n">
+      <c r="E59" s="21">
         <v>13</v>
       </c>
-      <c r="F59" s="21" t="n">
+      <c r="F59" s="21">
         <v>877</v>
       </c>
-      <c r="G59" s="21" t="n">
+      <c r="G59" s="21">
         <v>42</v>
       </c>
-      <c r="H59" s="21" t="n">
+      <c r="H59" s="21">
         <v>688</v>
       </c>
-      <c r="I59" s="21" t="n">
+      <c r="I59" s="21">
         <v>147</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1">
-      <c r="A60" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. na Rovella</t>
-        </is>
-      </c>
-      <c r="B60" s="13" t="n">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="7">
         <v>7051</v>
       </c>
-      <c r="C60" s="13" t="n">
+      <c r="C60" s="7">
         <v>2505</v>
       </c>
-      <c r="D60" s="13" t="n">
+      <c r="D60" s="13">
         <v>4546</v>
       </c>
-      <c r="E60" s="13" t="n">
+      <c r="E60" s="7">
         <v>21</v>
       </c>
-      <c r="F60" s="13" t="n">
+      <c r="F60" s="7">
         <v>2484</v>
       </c>
-      <c r="G60" s="13" t="n">
+      <c r="G60" s="7">
         <v>124</v>
       </c>
-      <c r="H60" s="13" t="n">
+      <c r="H60" s="7">
         <v>1963</v>
       </c>
-      <c r="I60" s="13" t="n">
+      <c r="I60" s="7">
         <v>397</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1">
-      <c r="A61" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    6. la Punta </t>
-        </is>
-      </c>
-      <c r="B61" s="21" t="n">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="21">
         <v>1832</v>
       </c>
-      <c r="C61" s="21" t="n">
+      <c r="C61" s="21">
         <v>661</v>
       </c>
-      <c r="D61" s="21" t="n">
+      <c r="D61" s="20">
         <v>1171</v>
       </c>
-      <c r="E61" s="21" t="n">
+      <c r="E61" s="21">
         <v>6</v>
       </c>
-      <c r="F61" s="21" t="n">
+      <c r="F61" s="21">
         <v>655</v>
       </c>
-      <c r="G61" s="21" t="n">
+      <c r="G61" s="21">
         <v>24</v>
       </c>
-      <c r="H61" s="21" t="n">
+      <c r="H61" s="21">
         <v>521</v>
       </c>
-      <c r="I61" s="21" t="n">
+      <c r="I61" s="21">
         <v>110</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1">
-      <c r="A62" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    7. Ciutat de les Arts i de les Ciències</t>
-        </is>
-      </c>
-      <c r="B62" s="13" t="n">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7">
         <v>3690</v>
       </c>
-      <c r="C62" s="13" t="n">
+      <c r="C62" s="7">
         <v>1570</v>
       </c>
-      <c r="D62" s="13" t="n">
+      <c r="D62" s="13">
         <v>2120</v>
       </c>
-      <c r="E62" s="13" t="n">
+      <c r="E62" s="7">
         <v>3</v>
       </c>
-      <c r="F62" s="13" t="n">
+      <c r="F62" s="7">
         <v>1567</v>
       </c>
-      <c r="G62" s="13" t="n">
+      <c r="G62" s="7">
         <v>98</v>
       </c>
-      <c r="H62" s="13" t="n">
+      <c r="H62" s="7">
         <v>1109</v>
       </c>
-      <c r="I62" s="13" t="n">
+      <c r="I62" s="7">
         <v>360</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1">
-      <c r="A63" s="18" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B63" s="21" t="n"/>
-      <c r="C63" s="21" t="n"/>
-      <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="n"/>
-      <c r="F63" s="21" t="n"/>
-      <c r="G63" s="21" t="n"/>
-      <c r="H63" s="21" t="n"/>
-      <c r="I63" s="21" t="n"/>
-    </row>
-    <row r="64" ht="15" customHeight="1">
-      <c r="A64" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. el Grau</t>
-        </is>
-      </c>
-      <c r="B64" s="13" t="n">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="7">
         <v>6830</v>
       </c>
-      <c r="C64" s="13" t="n">
+      <c r="C64" s="7">
         <v>2622</v>
       </c>
-      <c r="D64" s="13" t="n">
+      <c r="D64" s="13">
         <v>4208</v>
       </c>
-      <c r="E64" s="13" t="n">
+      <c r="E64" s="7">
         <v>15</v>
       </c>
-      <c r="F64" s="13" t="n">
+      <c r="F64" s="7">
         <v>2607</v>
       </c>
-      <c r="G64" s="13" t="n">
+      <c r="G64" s="7">
         <v>169</v>
       </c>
-      <c r="H64" s="13" t="n">
+      <c r="H64" s="7">
         <v>1952</v>
       </c>
-      <c r="I64" s="13" t="n">
+      <c r="I64" s="7">
         <v>486</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1">
-      <c r="A65" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. el Cabanyal-el Canyamelar</t>
-        </is>
-      </c>
-      <c r="B65" s="21" t="n">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="21">
         <v>16493</v>
       </c>
-      <c r="C65" s="21" t="n">
+      <c r="C65" s="21">
         <v>6486</v>
       </c>
-      <c r="D65" s="21" t="n">
+      <c r="D65" s="20">
         <v>10007</v>
       </c>
-      <c r="E65" s="21" t="n">
+      <c r="E65" s="21">
         <v>70</v>
       </c>
-      <c r="F65" s="21" t="n">
+      <c r="F65" s="21">
         <v>6416</v>
       </c>
-      <c r="G65" s="21" t="n">
+      <c r="G65" s="21">
         <v>329</v>
       </c>
-      <c r="H65" s="21" t="n">
+      <c r="H65" s="21">
         <v>4930</v>
       </c>
-      <c r="I65" s="21" t="n">
+      <c r="I65" s="21">
         <v>1157</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1">
-      <c r="A66" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. la Malva-rosa</t>
-        </is>
-      </c>
-      <c r="B66" s="13" t="n">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="7">
         <v>11063</v>
       </c>
-      <c r="C66" s="13" t="n">
+      <c r="C66" s="7">
         <v>4401</v>
       </c>
-      <c r="D66" s="13" t="n">
+      <c r="D66" s="13">
         <v>6662</v>
       </c>
-      <c r="E66" s="13" t="n">
+      <c r="E66" s="7">
         <v>34</v>
       </c>
-      <c r="F66" s="13" t="n">
+      <c r="F66" s="7">
         <v>4367</v>
       </c>
-      <c r="G66" s="13" t="n">
+      <c r="G66" s="7">
         <v>249</v>
       </c>
-      <c r="H66" s="13" t="n">
+      <c r="H66" s="7">
         <v>3343</v>
       </c>
-      <c r="I66" s="13" t="n">
+      <c r="I66" s="7">
         <v>775</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1">
-      <c r="A67" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. Beteró</t>
-        </is>
-      </c>
-      <c r="B67" s="21" t="n">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="21">
         <v>6463</v>
       </c>
-      <c r="C67" s="21" t="n">
+      <c r="C67" s="21">
         <v>2697</v>
       </c>
-      <c r="D67" s="21" t="n">
+      <c r="D67" s="20">
         <v>3766</v>
       </c>
-      <c r="E67" s="21" t="n">
+      <c r="E67" s="21">
         <v>20</v>
       </c>
-      <c r="F67" s="21" t="n">
+      <c r="F67" s="21">
         <v>2677</v>
       </c>
-      <c r="G67" s="21" t="n">
+      <c r="G67" s="21">
         <v>144</v>
       </c>
-      <c r="H67" s="21" t="n">
+      <c r="H67" s="21">
         <v>2101</v>
       </c>
-      <c r="I67" s="21" t="n">
+      <c r="I67" s="21">
         <v>432</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1">
-      <c r="A68" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. Natzaret </t>
-        </is>
-      </c>
-      <c r="B68" s="13" t="n">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="7">
         <v>4822</v>
       </c>
-      <c r="C68" s="13" t="n">
+      <c r="C68" s="7">
         <v>1781</v>
       </c>
-      <c r="D68" s="13" t="n">
+      <c r="D68" s="13">
         <v>3041</v>
       </c>
-      <c r="E68" s="13" t="n">
+      <c r="E68" s="7">
         <v>17</v>
       </c>
-      <c r="F68" s="13" t="n">
+      <c r="F68" s="7">
         <v>1764</v>
       </c>
-      <c r="G68" s="13" t="n">
+      <c r="G68" s="7">
         <v>71</v>
       </c>
-      <c r="H68" s="13" t="n">
+      <c r="H68" s="7">
         <v>1436</v>
       </c>
-      <c r="I68" s="13" t="n">
+      <c r="I68" s="7">
         <v>257</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="18" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B69" s="21" t="n"/>
-      <c r="C69" s="21" t="n"/>
-      <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="n"/>
-      <c r="F69" s="21" t="n"/>
-      <c r="G69" s="21" t="n"/>
-      <c r="H69" s="21" t="n"/>
-      <c r="I69" s="21" t="n"/>
-    </row>
-    <row r="70" ht="15" customHeight="1">
-      <c r="A70" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Aiora</t>
-        </is>
-      </c>
-      <c r="B70" s="13" t="n">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="7">
         <v>18840</v>
       </c>
-      <c r="C70" s="13" t="n">
+      <c r="C70" s="7">
         <v>8170</v>
       </c>
-      <c r="D70" s="13" t="n">
+      <c r="D70" s="13">
         <v>10670</v>
       </c>
-      <c r="E70" s="13" t="n">
+      <c r="E70" s="7">
         <v>69</v>
       </c>
-      <c r="F70" s="13" t="n">
+      <c r="F70" s="7">
         <v>8101</v>
       </c>
-      <c r="G70" s="13" t="n">
+      <c r="G70" s="7">
         <v>460</v>
       </c>
-      <c r="H70" s="13" t="n">
+      <c r="H70" s="7">
         <v>6249</v>
       </c>
-      <c r="I70" s="13" t="n">
+      <c r="I70" s="7">
         <v>1392</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Albors</t>
-        </is>
-      </c>
-      <c r="B71" s="21" t="n">
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="21">
         <v>6962</v>
       </c>
-      <c r="C71" s="21" t="n">
+      <c r="C71" s="21">
         <v>3203</v>
       </c>
-      <c r="D71" s="21" t="n">
+      <c r="D71" s="20">
         <v>3759</v>
       </c>
-      <c r="E71" s="21" t="n">
+      <c r="E71" s="21">
         <v>29</v>
       </c>
-      <c r="F71" s="21" t="n">
+      <c r="F71" s="21">
         <v>3174</v>
       </c>
-      <c r="G71" s="21" t="n">
+      <c r="G71" s="21">
         <v>190</v>
       </c>
-      <c r="H71" s="21" t="n">
+      <c r="H71" s="21">
         <v>2327</v>
       </c>
-      <c r="I71" s="21" t="n">
+      <c r="I71" s="21">
         <v>657</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1">
-      <c r="A72" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. la Creu del Grau </t>
-        </is>
-      </c>
-      <c r="B72" s="13" t="n">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" s="7">
         <v>10978</v>
       </c>
-      <c r="C72" s="13" t="n">
+      <c r="C72" s="7">
         <v>4640</v>
       </c>
-      <c r="D72" s="13" t="n">
+      <c r="D72" s="13">
         <v>6338</v>
       </c>
-      <c r="E72" s="13" t="n">
+      <c r="E72" s="7">
         <v>58</v>
       </c>
-      <c r="F72" s="13" t="n">
+      <c r="F72" s="7">
         <v>4582</v>
       </c>
-      <c r="G72" s="13" t="n">
+      <c r="G72" s="7">
         <v>236</v>
       </c>
-      <c r="H72" s="13" t="n">
+      <c r="H72" s="7">
         <v>3559</v>
       </c>
-      <c r="I72" s="13" t="n">
+      <c r="I72" s="7">
         <v>787</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1">
-      <c r="A73" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. Camí Fondo</t>
-        </is>
-      </c>
-      <c r="B73" s="21" t="n">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="21">
         <v>3261</v>
       </c>
-      <c r="C73" s="21" t="n">
+      <c r="C73" s="21">
         <v>1428</v>
       </c>
-      <c r="D73" s="21" t="n">
+      <c r="D73" s="20">
         <v>1833</v>
       </c>
-      <c r="E73" s="21" t="n">
+      <c r="E73" s="21">
         <v>14</v>
       </c>
-      <c r="F73" s="21" t="n">
+      <c r="F73" s="21">
         <v>1414</v>
       </c>
-      <c r="G73" s="21" t="n">
+      <c r="G73" s="21">
         <v>113</v>
       </c>
-      <c r="H73" s="21" t="n">
+      <c r="H73" s="21">
         <v>985</v>
       </c>
-      <c r="I73" s="21" t="n">
+      <c r="I73" s="21">
         <v>316</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1">
-      <c r="A74" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. Penya-roja</t>
-        </is>
-      </c>
-      <c r="B74" s="13" t="n">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" s="7">
         <v>4974</v>
       </c>
-      <c r="C74" s="13" t="n">
+      <c r="C74" s="7">
         <v>2321</v>
       </c>
-      <c r="D74" s="13" t="n">
+      <c r="D74" s="13">
         <v>2653</v>
       </c>
-      <c r="E74" s="13" t="n">
+      <c r="E74" s="7">
         <v>4</v>
       </c>
-      <c r="F74" s="13" t="n">
+      <c r="F74" s="7">
         <v>2317</v>
       </c>
-      <c r="G74" s="13" t="n">
+      <c r="G74" s="7">
         <v>177</v>
       </c>
-      <c r="H74" s="13" t="n">
+      <c r="H74" s="7">
         <v>1577</v>
       </c>
-      <c r="I74" s="13" t="n">
+      <c r="I74" s="7">
         <v>563</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1">
-      <c r="A75" s="18" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B75" s="21" t="n"/>
-      <c r="C75" s="21" t="n"/>
-      <c r="D75" s="21" t="n"/>
-      <c r="E75" s="21" t="n"/>
-      <c r="F75" s="21" t="n"/>
-      <c r="G75" s="21" t="n"/>
-      <c r="H75" s="21" t="n"/>
-      <c r="I75" s="21" t="n"/>
-    </row>
-    <row r="76" ht="15" customHeight="1">
-      <c r="A76" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. l'Illa Perduda</t>
-        </is>
-      </c>
-      <c r="B76" s="13" t="n">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="7">
         <v>7851</v>
       </c>
-      <c r="C76" s="13" t="n">
+      <c r="C76" s="7">
         <v>3607</v>
       </c>
-      <c r="D76" s="13" t="n">
+      <c r="D76" s="13">
         <v>4244</v>
       </c>
-      <c r="E76" s="13" t="n">
+      <c r="E76" s="7">
         <v>38</v>
       </c>
-      <c r="F76" s="13" t="n">
+      <c r="F76" s="7">
         <v>3569</v>
       </c>
-      <c r="G76" s="13" t="n">
+      <c r="G76" s="7">
         <v>228</v>
       </c>
-      <c r="H76" s="13" t="n">
+      <c r="H76" s="7">
         <v>2756</v>
       </c>
-      <c r="I76" s="13" t="n">
+      <c r="I76" s="7">
         <v>585</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1">
-      <c r="A77" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Ciutat Jardí</t>
-        </is>
-      </c>
-      <c r="B77" s="21" t="n">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="21">
         <v>10886</v>
       </c>
-      <c r="C77" s="21" t="n">
+      <c r="C77" s="21">
         <v>5094</v>
       </c>
-      <c r="D77" s="21" t="n">
+      <c r="D77" s="20">
         <v>5792</v>
       </c>
-      <c r="E77" s="21" t="n">
+      <c r="E77" s="21">
         <v>27</v>
       </c>
-      <c r="F77" s="21" t="n">
+      <c r="F77" s="21">
         <v>5067</v>
       </c>
-      <c r="G77" s="21" t="n">
+      <c r="G77" s="21">
         <v>353</v>
       </c>
-      <c r="H77" s="21" t="n">
+      <c r="H77" s="21">
         <v>3685</v>
       </c>
-      <c r="I77" s="21" t="n">
+      <c r="I77" s="21">
         <v>1029</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1">
-      <c r="A78" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. l'Amistat</t>
-        </is>
-      </c>
-      <c r="B78" s="13" t="n">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="7">
         <v>5925</v>
       </c>
-      <c r="C78" s="13" t="n">
+      <c r="C78" s="7">
         <v>2751</v>
       </c>
-      <c r="D78" s="13" t="n">
+      <c r="D78" s="13">
         <v>3174</v>
       </c>
-      <c r="E78" s="13" t="n">
+      <c r="E78" s="7">
         <v>23</v>
       </c>
-      <c r="F78" s="13" t="n">
+      <c r="F78" s="7">
         <v>2728</v>
       </c>
-      <c r="G78" s="13" t="n">
+      <c r="G78" s="7">
         <v>192</v>
       </c>
-      <c r="H78" s="13" t="n">
+      <c r="H78" s="7">
         <v>2023</v>
       </c>
-      <c r="I78" s="13" t="n">
+      <c r="I78" s="7">
         <v>513</v>
       </c>
     </row>
-    <row r="79" ht="15" customHeight="1">
-      <c r="A79" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. la Bega Baixa</t>
-        </is>
-      </c>
-      <c r="B79" s="21" t="n">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="21">
         <v>4901</v>
       </c>
-      <c r="C79" s="21" t="n">
+      <c r="C79" s="21">
         <v>2453</v>
       </c>
-      <c r="D79" s="21" t="n">
+      <c r="D79" s="20">
         <v>2448</v>
       </c>
-      <c r="E79" s="21" t="n">
+      <c r="E79" s="21">
         <v>9</v>
       </c>
-      <c r="F79" s="21" t="n">
+      <c r="F79" s="21">
         <v>2444</v>
       </c>
-      <c r="G79" s="21" t="n">
+      <c r="G79" s="21">
         <v>194</v>
       </c>
-      <c r="H79" s="21" t="n">
+      <c r="H79" s="21">
         <v>1628</v>
       </c>
-      <c r="I79" s="21" t="n">
+      <c r="I79" s="21">
         <v>622</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1">
-      <c r="A80" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. la Carrasca</t>
-        </is>
-      </c>
-      <c r="B80" s="13" t="n">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="7">
         <v>2699</v>
       </c>
-      <c r="C80" s="13" t="n">
+      <c r="C80" s="7">
         <v>1282</v>
       </c>
-      <c r="D80" s="13" t="n">
+      <c r="D80" s="13">
         <v>1417</v>
       </c>
-      <c r="E80" s="13" t="n">
+      <c r="E80" s="7">
         <v>9</v>
       </c>
-      <c r="F80" s="13" t="n">
+      <c r="F80" s="7">
         <v>1273</v>
       </c>
-      <c r="G80" s="13" t="n">
+      <c r="G80" s="7">
         <v>97</v>
       </c>
-      <c r="H80" s="13" t="n">
+      <c r="H80" s="7">
         <v>905</v>
       </c>
-      <c r="I80" s="13" t="n">
+      <c r="I80" s="7">
         <v>271</v>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="1">
-      <c r="A81" s="18" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B81" s="21" t="n"/>
-      <c r="C81" s="21" t="n"/>
-      <c r="D81" s="21" t="n"/>
-      <c r="E81" s="21" t="n"/>
-      <c r="F81" s="21" t="n"/>
-      <c r="G81" s="21" t="n"/>
-      <c r="H81" s="21" t="n"/>
-      <c r="I81" s="21" t="n"/>
-    </row>
-    <row r="82" ht="15" customHeight="1">
-      <c r="A82" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B82" s="13" t="n">
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+    </row>
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" s="7">
         <v>18725</v>
       </c>
-      <c r="C82" s="13" t="n">
+      <c r="C82" s="7">
         <v>8637</v>
       </c>
-      <c r="D82" s="13" t="n">
+      <c r="D82" s="13">
         <v>10088</v>
       </c>
-      <c r="E82" s="13" t="n">
+      <c r="E82" s="7">
         <v>73</v>
       </c>
-      <c r="F82" s="13" t="n">
+      <c r="F82" s="7">
         <v>8564</v>
       </c>
-      <c r="G82" s="13" t="n">
+      <c r="G82" s="7">
         <v>517</v>
       </c>
-      <c r="H82" s="13" t="n">
+      <c r="H82" s="7">
         <v>6134</v>
       </c>
-      <c r="I82" s="13" t="n">
+      <c r="I82" s="7">
         <v>1913</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1">
-      <c r="A83" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Camí de Vera</t>
-        </is>
-      </c>
-      <c r="B83" s="21" t="n">
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="21">
         <v>4513</v>
       </c>
-      <c r="C83" s="21" t="n">
+      <c r="C83" s="21">
         <v>2028</v>
       </c>
-      <c r="D83" s="21" t="n">
+      <c r="D83" s="20">
         <v>2485</v>
       </c>
-      <c r="E83" s="21" t="n">
+      <c r="E83" s="21">
         <v>16</v>
       </c>
-      <c r="F83" s="21" t="n">
+      <c r="F83" s="21">
         <v>2012</v>
       </c>
-      <c r="G83" s="21" t="n">
+      <c r="G83" s="21">
         <v>130</v>
       </c>
-      <c r="H83" s="21" t="n">
+      <c r="H83" s="21">
         <v>1471</v>
       </c>
-      <c r="I83" s="21" t="n">
+      <c r="I83" s="21">
         <v>411</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1">
-      <c r="A84" s="12" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B84" s="13" t="n"/>
-      <c r="C84" s="13" t="n"/>
-      <c r="D84" s="13" t="n"/>
-      <c r="E84" s="13" t="n"/>
-      <c r="F84" s="13" t="n"/>
-      <c r="G84" s="13" t="n"/>
-      <c r="H84" s="13" t="n"/>
-      <c r="I84" s="13" t="n"/>
-    </row>
-    <row r="85" ht="15" customHeight="1">
-      <c r="A85" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Orriols </t>
-        </is>
-      </c>
-      <c r="B85" s="21" t="n">
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="21">
         <v>11894</v>
       </c>
-      <c r="C85" s="21" t="n">
+      <c r="C85" s="21">
         <v>5102</v>
       </c>
-      <c r="D85" s="21" t="n">
+      <c r="D85" s="20">
         <v>6792</v>
       </c>
-      <c r="E85" s="21" t="n">
+      <c r="E85" s="21">
         <v>67</v>
       </c>
-      <c r="F85" s="21" t="n">
+      <c r="F85" s="21">
         <v>5035</v>
       </c>
-      <c r="G85" s="21" t="n">
+      <c r="G85" s="21">
         <v>259</v>
       </c>
-      <c r="H85" s="21" t="n">
+      <c r="H85" s="21">
         <v>3917</v>
       </c>
-      <c r="I85" s="21" t="n">
+      <c r="I85" s="21">
         <v>859</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1">
-      <c r="A86" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Torrefiel </t>
-        </is>
-      </c>
-      <c r="B86" s="13" t="n">
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" s="7">
         <v>19286</v>
       </c>
-      <c r="C86" s="13" t="n">
+      <c r="C86" s="7">
         <v>8096</v>
       </c>
-      <c r="D86" s="13" t="n">
+      <c r="D86" s="13">
         <v>11190</v>
       </c>
-      <c r="E86" s="13" t="n">
+      <c r="E86" s="7">
         <v>75</v>
       </c>
-      <c r="F86" s="13" t="n">
+      <c r="F86" s="7">
         <v>8021</v>
       </c>
-      <c r="G86" s="13" t="n">
+      <c r="G86" s="7">
         <v>470</v>
       </c>
-      <c r="H86" s="13" t="n">
+      <c r="H86" s="7">
         <v>6224</v>
       </c>
-      <c r="I86" s="13" t="n">
+      <c r="I86" s="7">
         <v>1327</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1">
-      <c r="A87" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. Sant Llorenç</t>
-        </is>
-      </c>
-      <c r="B87" s="21" t="n">
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" s="21">
         <v>4907</v>
       </c>
-      <c r="C87" s="21" t="n">
+      <c r="C87" s="21">
         <v>2209</v>
       </c>
-      <c r="D87" s="21" t="n">
+      <c r="D87" s="20">
         <v>2698</v>
       </c>
-      <c r="E87" s="21" t="n">
+      <c r="E87" s="21">
         <v>15</v>
       </c>
-      <c r="F87" s="21" t="n">
+      <c r="F87" s="21">
         <v>2194</v>
       </c>
-      <c r="G87" s="21" t="n">
+      <c r="G87" s="21">
         <v>168</v>
       </c>
-      <c r="H87" s="21" t="n">
+      <c r="H87" s="21">
         <v>1590</v>
       </c>
-      <c r="I87" s="21" t="n">
+      <c r="I87" s="21">
         <v>436</v>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1">
-      <c r="A88" s="12" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B88" s="13" t="n"/>
-      <c r="C88" s="13" t="n"/>
-      <c r="D88" s="13" t="n"/>
-      <c r="E88" s="13" t="n"/>
-      <c r="F88" s="13" t="n"/>
-      <c r="G88" s="13" t="n"/>
-      <c r="H88" s="13" t="n"/>
-      <c r="I88" s="13" t="n"/>
-    </row>
-    <row r="89" ht="15" customHeight="1">
-      <c r="A89" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Benicalap </t>
-        </is>
-      </c>
-      <c r="B89" s="21" t="n">
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="21">
         <v>26464</v>
       </c>
-      <c r="C89" s="21" t="n">
+      <c r="C89" s="21">
         <v>10805</v>
       </c>
-      <c r="D89" s="21" t="n">
+      <c r="D89" s="20">
         <v>15659</v>
       </c>
-      <c r="E89" s="21" t="n">
+      <c r="E89" s="21">
         <v>90</v>
       </c>
-      <c r="F89" s="21" t="n">
+      <c r="F89" s="21">
         <v>10715</v>
       </c>
-      <c r="G89" s="21" t="n">
+      <c r="G89" s="21">
         <v>647</v>
       </c>
-      <c r="H89" s="21" t="n">
+      <c r="H89" s="21">
         <v>8336</v>
       </c>
-      <c r="I89" s="21" t="n">
+      <c r="I89" s="21">
         <v>1732</v>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Ciutat Fallera </t>
-        </is>
-      </c>
-      <c r="B90" s="13" t="n">
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" s="7">
         <v>4706</v>
       </c>
-      <c r="C90" s="13" t="n">
+      <c r="C90" s="7">
         <v>1909</v>
       </c>
-      <c r="D90" s="13" t="n">
+      <c r="D90" s="13">
         <v>2797</v>
       </c>
-      <c r="E90" s="13" t="n">
+      <c r="E90" s="7">
         <v>16</v>
       </c>
-      <c r="F90" s="13" t="n">
+      <c r="F90" s="7">
         <v>1893</v>
       </c>
-      <c r="G90" s="13" t="n">
+      <c r="G90" s="7">
         <v>113</v>
       </c>
-      <c r="H90" s="13" t="n">
+      <c r="H90" s="7">
         <v>1509</v>
       </c>
-      <c r="I90" s="13" t="n">
+      <c r="I90" s="7">
         <v>271</v>
       </c>
     </row>
-    <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="18" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B91" s="21" t="n"/>
-      <c r="C91" s="21" t="n"/>
-      <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
-      <c r="F91" s="21" t="n"/>
-      <c r="G91" s="21" t="n"/>
-      <c r="H91" s="21" t="n"/>
-      <c r="I91" s="21" t="n"/>
-    </row>
-    <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Benifaraig </t>
-        </is>
-      </c>
-      <c r="B92" s="13" t="n">
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+    </row>
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" s="7">
         <v>785</v>
       </c>
-      <c r="C92" s="13" t="n">
+      <c r="C92" s="7">
         <v>398</v>
       </c>
-      <c r="D92" s="13" t="n">
+      <c r="D92" s="13">
         <v>387</v>
       </c>
-      <c r="E92" s="13" t="n">
+      <c r="E92" s="7">
         <v>1</v>
       </c>
-      <c r="F92" s="13" t="n">
+      <c r="F92" s="7">
         <v>397</v>
       </c>
-      <c r="G92" s="13" t="n">
+      <c r="G92" s="7">
         <v>26</v>
       </c>
-      <c r="H92" s="13" t="n">
+      <c r="H92" s="7">
         <v>281</v>
       </c>
-      <c r="I92" s="13" t="n">
+      <c r="I92" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Poble Nou </t>
-        </is>
-      </c>
-      <c r="B93" s="21" t="n">
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" s="21">
         <v>791</v>
       </c>
-      <c r="C93" s="21" t="n">
+      <c r="C93" s="21">
         <v>320</v>
       </c>
-      <c r="D93" s="21" t="n">
+      <c r="D93" s="20">
         <v>471</v>
       </c>
-      <c r="E93" s="21" t="n">
+      <c r="E93" s="21">
         <v>7</v>
       </c>
-      <c r="F93" s="21" t="n">
+      <c r="F93" s="21">
         <v>313</v>
       </c>
-      <c r="G93" s="21" t="n">
+      <c r="G93" s="21">
         <v>17</v>
       </c>
-      <c r="H93" s="21" t="n">
+      <c r="H93" s="21">
         <v>242</v>
       </c>
-      <c r="I93" s="21" t="n">
+      <c r="I93" s="21">
         <v>54</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1">
-      <c r="A94" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. Carpesa</t>
-        </is>
-      </c>
-      <c r="B94" s="13" t="n">
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" s="7">
         <v>1021</v>
       </c>
-      <c r="C94" s="13" t="n">
+      <c r="C94" s="7">
         <v>510</v>
       </c>
-      <c r="D94" s="13" t="n">
+      <c r="D94" s="13">
         <v>511</v>
       </c>
-      <c r="E94" s="13" t="n">
+      <c r="E94" s="7">
         <v>3</v>
       </c>
-      <c r="F94" s="13" t="n">
+      <c r="F94" s="7">
         <v>507</v>
       </c>
-      <c r="G94" s="13" t="n">
+      <c r="G94" s="7">
         <v>47</v>
       </c>
-      <c r="H94" s="13" t="n">
+      <c r="H94" s="7">
         <v>364</v>
       </c>
-      <c r="I94" s="13" t="n">
+      <c r="I94" s="7">
         <v>96</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1">
-      <c r="A95" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4 i 5. les Cases de Bàrcena-Mauella </t>
-        </is>
-      </c>
-      <c r="B95" s="21" t="n">
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" s="21">
         <v>390</v>
       </c>
-      <c r="C95" s="21" t="n">
+      <c r="C95" s="21">
         <v>193</v>
       </c>
-      <c r="D95" s="21" t="n">
+      <c r="D95" s="20">
         <v>197</v>
       </c>
-      <c r="E95" s="21" t="n">
+      <c r="E95" s="21">
         <v>1</v>
       </c>
-      <c r="F95" s="21" t="n">
+      <c r="F95" s="21">
         <v>192</v>
       </c>
-      <c r="G95" s="21" t="n">
+      <c r="G95" s="21">
         <v>9</v>
       </c>
-      <c r="H95" s="21" t="n">
+      <c r="H95" s="21">
         <v>147</v>
       </c>
-      <c r="I95" s="21" t="n">
+      <c r="I95" s="21">
         <v>36</v>
       </c>
     </row>
-    <row r="96" ht="15" customHeight="1">
-      <c r="A96" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    6. Massarrojos</t>
-        </is>
-      </c>
-      <c r="B96" s="13" t="n">
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="7">
         <v>1118</v>
       </c>
-      <c r="C96" s="13" t="n">
+      <c r="C96" s="7">
         <v>540</v>
       </c>
-      <c r="D96" s="13" t="n">
+      <c r="D96" s="13">
         <v>578</v>
       </c>
-      <c r="E96" s="13" t="n">
+      <c r="E96" s="7">
         <v>5</v>
       </c>
-      <c r="F96" s="13" t="n">
+      <c r="F96" s="7">
         <v>535</v>
       </c>
-      <c r="G96" s="13" t="n">
+      <c r="G96" s="7">
         <v>47</v>
       </c>
-      <c r="H96" s="13" t="n">
+      <c r="H96" s="7">
         <v>359</v>
       </c>
-      <c r="I96" s="13" t="n">
+      <c r="I96" s="7">
         <v>129</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    7. Borbotó</t>
-        </is>
-      </c>
-      <c r="B97" s="21" t="n">
+    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="21">
         <v>630</v>
       </c>
-      <c r="C97" s="21" t="n">
+      <c r="C97" s="21">
         <v>279</v>
       </c>
-      <c r="D97" s="21" t="n">
+      <c r="D97" s="20">
         <v>351</v>
       </c>
-      <c r="E97" s="21" t="n">
+      <c r="E97" s="21">
         <v>5</v>
       </c>
-      <c r="F97" s="21" t="n">
+      <c r="F97" s="21">
         <v>274</v>
       </c>
-      <c r="G97" s="21" t="n">
+      <c r="G97" s="21">
         <v>24</v>
       </c>
-      <c r="H97" s="21" t="n">
+      <c r="H97" s="21">
         <v>220</v>
       </c>
-      <c r="I97" s="21" t="n">
+      <c r="I97" s="21">
         <v>30</v>
       </c>
     </row>
-    <row r="98" ht="15" customHeight="1">
-      <c r="A98" s="12" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B98" s="13" t="n"/>
-      <c r="C98" s="13" t="n"/>
-      <c r="D98" s="13" t="n"/>
-      <c r="E98" s="13" t="n"/>
-      <c r="F98" s="13" t="n"/>
-      <c r="G98" s="13" t="n"/>
-      <c r="H98" s="13" t="n"/>
-      <c r="I98" s="13" t="n"/>
-    </row>
-    <row r="99" ht="15" customHeight="1">
-      <c r="A99" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Benimàmet</t>
-        </is>
-      </c>
-      <c r="B99" s="21" t="n">
+    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B99" s="21">
         <v>9814</v>
       </c>
-      <c r="C99" s="21" t="n">
+      <c r="C99" s="21">
         <v>4015</v>
       </c>
-      <c r="D99" s="21" t="n">
+      <c r="D99" s="20">
         <v>5799</v>
       </c>
-      <c r="E99" s="21" t="n">
+      <c r="E99" s="21">
         <v>54</v>
       </c>
-      <c r="F99" s="21" t="n">
+      <c r="F99" s="21">
         <v>3961</v>
       </c>
-      <c r="G99" s="21" t="n">
+      <c r="G99" s="21">
         <v>192</v>
       </c>
-      <c r="H99" s="21" t="n">
+      <c r="H99" s="21">
         <v>3132</v>
       </c>
-      <c r="I99" s="21" t="n">
+      <c r="I99" s="21">
         <v>637</v>
       </c>
     </row>
-    <row r="100" ht="15" customHeight="1">
-      <c r="A100" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Beniferri</t>
-        </is>
-      </c>
-      <c r="B100" s="13" t="n">
+    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B100" s="7">
         <v>488</v>
       </c>
-      <c r="C100" s="13" t="n">
+      <c r="C100" s="7">
         <v>240</v>
       </c>
-      <c r="D100" s="13" t="n">
+      <c r="D100" s="13">
         <v>248</v>
       </c>
-      <c r="E100" s="13" t="n">
+      <c r="E100" s="7">
         <v>0</v>
       </c>
-      <c r="F100" s="13" t="n">
+      <c r="F100" s="7">
         <v>240</v>
       </c>
-      <c r="G100" s="13" t="n">
+      <c r="G100" s="7">
         <v>13</v>
       </c>
-      <c r="H100" s="13" t="n">
+      <c r="H100" s="7">
         <v>175</v>
       </c>
-      <c r="I100" s="13" t="n">
+      <c r="I100" s="7">
         <v>52</v>
       </c>
     </row>
-    <row r="101" ht="15" customHeight="1">
-      <c r="A101" s="18" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
-      <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
-      <c r="F101" s="21" t="n"/>
-      <c r="G101" s="21" t="n"/>
-      <c r="H101" s="21" t="n"/>
-      <c r="I101" s="21" t="n"/>
-    </row>
-    <row r="102" ht="15" customHeight="1">
-      <c r="A102" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. el Forn d'Alcedo</t>
-        </is>
-      </c>
-      <c r="B102" s="13" t="n">
+    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+    </row>
+    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" s="7">
         <v>1114</v>
       </c>
-      <c r="C102" s="13" t="n">
+      <c r="C102" s="7">
         <v>514</v>
       </c>
-      <c r="D102" s="13" t="n">
+      <c r="D102" s="13">
         <v>600</v>
       </c>
-      <c r="E102" s="13" t="n">
+      <c r="E102" s="7">
         <v>13</v>
       </c>
-      <c r="F102" s="13" t="n">
+      <c r="F102" s="7">
         <v>501</v>
       </c>
-      <c r="G102" s="13" t="n">
+      <c r="G102" s="7">
         <v>32</v>
       </c>
-      <c r="H102" s="13" t="n">
+      <c r="H102" s="7">
         <v>388</v>
       </c>
-      <c r="I102" s="13" t="n">
+      <c r="I102" s="7">
         <v>81</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1">
-      <c r="A103" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Castellar-l’Oliveral</t>
-        </is>
-      </c>
-      <c r="B103" s="21" t="n">
+    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" s="21">
         <v>5650</v>
       </c>
-      <c r="C103" s="21" t="n">
+      <c r="C103" s="21">
         <v>2234</v>
       </c>
-      <c r="D103" s="21" t="n">
+      <c r="D103" s="20">
         <v>3416</v>
       </c>
-      <c r="E103" s="21" t="n">
+      <c r="E103" s="21">
         <v>41</v>
       </c>
-      <c r="F103" s="21" t="n">
+      <c r="F103" s="21">
         <v>2193</v>
       </c>
-      <c r="G103" s="21" t="n">
+      <c r="G103" s="21">
         <v>123</v>
       </c>
-      <c r="H103" s="21" t="n">
+      <c r="H103" s="21">
         <v>1758</v>
       </c>
-      <c r="I103" s="21" t="n">
+      <c r="I103" s="21">
         <v>312</v>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1">
-      <c r="A104" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. Pinedo</t>
-        </is>
-      </c>
-      <c r="B104" s="13" t="n">
+    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" s="7">
         <v>1967</v>
       </c>
-      <c r="C104" s="13" t="n">
+      <c r="C104" s="7">
         <v>831</v>
       </c>
-      <c r="D104" s="13" t="n">
+      <c r="D104" s="13">
         <v>1136</v>
       </c>
-      <c r="E104" s="13" t="n">
+      <c r="E104" s="7">
         <v>4</v>
       </c>
-      <c r="F104" s="13" t="n">
+      <c r="F104" s="7">
         <v>827</v>
       </c>
-      <c r="G104" s="13" t="n">
+      <c r="G104" s="7">
         <v>42</v>
       </c>
-      <c r="H104" s="13" t="n">
+      <c r="H104" s="7">
         <v>666</v>
       </c>
-      <c r="I104" s="13" t="n">
+      <c r="I104" s="7">
         <v>119</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1">
-      <c r="A105" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. el Saler</t>
-        </is>
-      </c>
-      <c r="B105" s="21" t="n">
+    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B105" s="21">
         <v>1090</v>
       </c>
-      <c r="C105" s="21" t="n">
+      <c r="C105" s="21">
         <v>511</v>
       </c>
-      <c r="D105" s="21" t="n">
+      <c r="D105" s="20">
         <v>579</v>
       </c>
-      <c r="E105" s="21" t="n">
+      <c r="E105" s="21">
         <v>2</v>
       </c>
-      <c r="F105" s="21" t="n">
+      <c r="F105" s="21">
         <v>509</v>
       </c>
-      <c r="G105" s="21" t="n">
+      <c r="G105" s="21">
         <v>23</v>
       </c>
-      <c r="H105" s="21" t="n">
+      <c r="H105" s="21">
         <v>358</v>
       </c>
-      <c r="I105" s="21" t="n">
+      <c r="I105" s="21">
         <v>128</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1">
-      <c r="A106" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. el Palmar</t>
-        </is>
-      </c>
-      <c r="B106" s="13" t="n">
+    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B106" s="7">
         <v>670</v>
       </c>
-      <c r="C106" s="13" t="n">
+      <c r="C106" s="7">
         <v>401</v>
       </c>
-      <c r="D106" s="13" t="n">
+      <c r="D106" s="13">
         <v>269</v>
       </c>
-      <c r="E106" s="13" t="n">
+      <c r="E106" s="7">
         <v>6</v>
       </c>
-      <c r="F106" s="13" t="n">
+      <c r="F106" s="7">
         <v>395</v>
       </c>
-      <c r="G106" s="13" t="n">
+      <c r="G106" s="7">
         <v>15</v>
       </c>
-      <c r="H106" s="13" t="n">
+      <c r="H106" s="7">
         <v>337</v>
       </c>
-      <c r="I106" s="13" t="n">
+      <c r="I106" s="7">
         <v>43</v>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1">
-      <c r="A107" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    6. el Perellonet</t>
-        </is>
-      </c>
-      <c r="B107" s="21" t="n">
+    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B107" s="21">
         <v>1222</v>
       </c>
-      <c r="C107" s="21" t="n">
+      <c r="C107" s="21">
         <v>472</v>
       </c>
-      <c r="D107" s="21" t="n">
+      <c r="D107" s="20">
         <v>750</v>
       </c>
-      <c r="E107" s="21" t="n">
+      <c r="E107" s="21">
         <v>2</v>
       </c>
-      <c r="F107" s="21" t="n">
+      <c r="F107" s="21">
         <v>470</v>
       </c>
-      <c r="G107" s="21" t="n">
+      <c r="G107" s="21">
         <v>22</v>
       </c>
-      <c r="H107" s="21" t="n">
+      <c r="H107" s="21">
         <v>361</v>
       </c>
-      <c r="I107" s="21" t="n">
+      <c r="I107" s="21">
         <v>87</v>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1">
-      <c r="A108" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    7 i 8. la Torre - Faitanar</t>
-        </is>
-      </c>
-      <c r="B108" s="13" t="n">
+    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B108" s="7">
         <v>4233</v>
       </c>
-      <c r="C108" s="13" t="n">
+      <c r="C108" s="7">
         <v>1751</v>
       </c>
-      <c r="D108" s="13" t="n">
+      <c r="D108" s="13">
         <v>2482</v>
       </c>
-      <c r="E108" s="13" t="n">
+      <c r="E108" s="7">
         <v>25</v>
       </c>
-      <c r="F108" s="13" t="n">
+      <c r="F108" s="7">
         <v>1726</v>
       </c>
-      <c r="G108" s="13" t="n">
+      <c r="G108" s="7">
         <v>95</v>
       </c>
-      <c r="H108" s="13" t="n">
+      <c r="H108" s="7">
         <v>1343</v>
       </c>
-      <c r="I108" s="13" t="n">
+      <c r="I108" s="7">
         <v>288</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Delegación de Gobierno en la Comunidad Valenciana. Resultados provisionales.</t>
-        </is>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="84" fitToHeight="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>